--- a/doc/data/small/data.xlsx
+++ b/doc/data/small/data.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Grupos-profesores" sheetId="1" r:id="rId1"/>
     <sheet name="Grupos estudiantes" sheetId="2" r:id="rId2"/>
+    <sheet name="Tutores estudiantes" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Grupos estudiantes'!$A$1:$E$137</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="298">
   <si>
     <t>Ulla Stout</t>
   </si>
@@ -691,6 +695,234 @@
   </si>
   <si>
     <t>E37a0aad0a</t>
+  </si>
+  <si>
+    <t>Cairo Chaney</t>
+  </si>
+  <si>
+    <t>Yasir C. Blevins</t>
+  </si>
+  <si>
+    <t>Kim K. Oneill</t>
+  </si>
+  <si>
+    <t>Stuart Hoffman</t>
+  </si>
+  <si>
+    <t>Garrison X. Nash</t>
+  </si>
+  <si>
+    <t>Adena Grant</t>
+  </si>
+  <si>
+    <t>Cleo Carrillo</t>
+  </si>
+  <si>
+    <t>E743931085</t>
+  </si>
+  <si>
+    <t>Logan L. Lang</t>
+  </si>
+  <si>
+    <t>Ignatius S. Compton</t>
+  </si>
+  <si>
+    <t>E0795dabd6</t>
+  </si>
+  <si>
+    <t>Trevor B. Levy</t>
+  </si>
+  <si>
+    <t>Britanni W. Hoover</t>
+  </si>
+  <si>
+    <t>Rashad Perry</t>
+  </si>
+  <si>
+    <t>Kiayada Kaufman</t>
+  </si>
+  <si>
+    <t>E4f401d2e7</t>
+  </si>
+  <si>
+    <t>Heidi Cook</t>
+  </si>
+  <si>
+    <t>Bradley D. Gates</t>
+  </si>
+  <si>
+    <t>Ava P. Suarez</t>
+  </si>
+  <si>
+    <t>Yael Rios</t>
+  </si>
+  <si>
+    <t>Athena Lee</t>
+  </si>
+  <si>
+    <t>Addison B. Olsen</t>
+  </si>
+  <si>
+    <t>Isabelle U. Kennedy</t>
+  </si>
+  <si>
+    <t>Ee2093c994</t>
+  </si>
+  <si>
+    <t>Justine Z. Willis</t>
+  </si>
+  <si>
+    <t>Venus J. Welch</t>
+  </si>
+  <si>
+    <t>E6a8d75c98</t>
+  </si>
+  <si>
+    <t>Brian Woodard</t>
+  </si>
+  <si>
+    <t>E2381f7f88</t>
+  </si>
+  <si>
+    <t>Hedwig Daniel</t>
+  </si>
+  <si>
+    <t>Merrill Clarke</t>
+  </si>
+  <si>
+    <t>Anika Mccarthy</t>
+  </si>
+  <si>
+    <t>Ef2271aba9</t>
+  </si>
+  <si>
+    <t>Deacon W. Roach</t>
+  </si>
+  <si>
+    <t>E1405284ef</t>
+  </si>
+  <si>
+    <t>Yoshi Z. Hammond</t>
+  </si>
+  <si>
+    <t>Lenore W. Ryan</t>
+  </si>
+  <si>
+    <t>Ee049a8b84</t>
+  </si>
+  <si>
+    <t>Mannix E. Burgess</t>
+  </si>
+  <si>
+    <t>Natalie Wynn</t>
+  </si>
+  <si>
+    <t>Tyler Y. Edwards</t>
+  </si>
+  <si>
+    <t>Michelle E. Albert</t>
+  </si>
+  <si>
+    <t>Irene U. Lynn</t>
+  </si>
+  <si>
+    <t>Ginger Valdez</t>
+  </si>
+  <si>
+    <t>Quynn Mclaughlin</t>
+  </si>
+  <si>
+    <t>E312088d60</t>
+  </si>
+  <si>
+    <t>Jael W. Wells</t>
+  </si>
+  <si>
+    <t>Ef94d8c9aa</t>
+  </si>
+  <si>
+    <t>Hayden Faulkner</t>
+  </si>
+  <si>
+    <t>Chester Ratliff</t>
+  </si>
+  <si>
+    <t>Laith D. Harvey</t>
+  </si>
+  <si>
+    <t>Tashya G. Morgan</t>
+  </si>
+  <si>
+    <t>Isaac Curtis</t>
+  </si>
+  <si>
+    <t>E2e7f6e835</t>
+  </si>
+  <si>
+    <t>Willow B. Phelps</t>
+  </si>
+  <si>
+    <t>Latifah Richards</t>
+  </si>
+  <si>
+    <t>George Blair</t>
+  </si>
+  <si>
+    <t>Nichole Christensen</t>
+  </si>
+  <si>
+    <t>Aurelia N. Powers</t>
+  </si>
+  <si>
+    <t>Faith L. Baldwin</t>
+  </si>
+  <si>
+    <t>Yardley N. Benjamin</t>
+  </si>
+  <si>
+    <t>Renee T. Hatfield</t>
+  </si>
+  <si>
+    <t>E2d868976e</t>
+  </si>
+  <si>
+    <t>Lane Smith</t>
+  </si>
+  <si>
+    <t>Nero A. Phelps</t>
+  </si>
+  <si>
+    <t>E96161f4a4</t>
+  </si>
+  <si>
+    <t>Carter Barker</t>
+  </si>
+  <si>
+    <t>E5ebca2d5b</t>
+  </si>
+  <si>
+    <t>Nora N. Holland</t>
+  </si>
+  <si>
+    <t>Eleanor E. Franklin</t>
+  </si>
+  <si>
+    <t>Ea959dadf6</t>
+  </si>
+  <si>
+    <t>Preston V. Clay</t>
+  </si>
+  <si>
+    <t>Clark Newman</t>
+  </si>
+  <si>
+    <t>E88de5bffd</t>
+  </si>
+  <si>
+    <t>Daryl R. Strong</t>
+  </si>
+  <si>
+    <t>E6d67db436</t>
   </si>
 </sst>
 </file>
@@ -1638,10 +1870,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E136"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,24 +1882,7 @@
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1677,13 +1893,13 @@
         <v>59</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1694,13 +1910,13 @@
         <v>59</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1711,30 +1927,30 @@
         <v>59</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1745,13 +1961,13 @@
         <v>61</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1762,30 +1978,30 @@
         <v>61</v>
       </c>
       <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -1796,13 +2012,13 @@
         <v>63</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -1813,30 +2029,30 @@
         <v>63</v>
       </c>
       <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -1847,13 +2063,13 @@
         <v>65</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1864,30 +2080,30 @@
         <v>65</v>
       </c>
       <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14">
         <v>13</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1898,30 +2114,30 @@
         <v>67</v>
       </c>
       <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16">
         <v>11</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1932,13 +2148,13 @@
         <v>69</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -1949,30 +2165,30 @@
         <v>69</v>
       </c>
       <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19">
         <v>13</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
@@ -1983,10 +2199,10 @@
         <v>71</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2000,180 +2216,2531 @@
         <v>71</v>
       </c>
       <c r="D21">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22">
         <v>12</v>
       </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31">
+        <v>13</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>22</v>
+      </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>24</v>
+      </c>
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>27</v>
+      </c>
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>28</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>29</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>30</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>31</v>
+      </c>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>32</v>
+      </c>
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+      <c r="C57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>35</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>36</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>37</v>
+      </c>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>37</v>
+      </c>
+      <c r="B61" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>38</v>
+      </c>
+      <c r="B62" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>39</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>40</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>44</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>45</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>46</v>
+      </c>
+      <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>46</v>
+      </c>
+      <c r="B68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>48</v>
+      </c>
+      <c r="B69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>51</v>
+      </c>
+      <c r="B70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>51</v>
+      </c>
+      <c r="B71" t="s">
+        <v>140</v>
+      </c>
+      <c r="C71" t="s">
+        <v>141</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>51</v>
+      </c>
+      <c r="B72" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" t="s">
+        <v>141</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>51</v>
+      </c>
+      <c r="B73" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" t="s">
+        <v>141</v>
+      </c>
+      <c r="D73">
+        <v>9</v>
+      </c>
+      <c r="E73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>52</v>
+      </c>
+      <c r="B74" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>52</v>
+      </c>
+      <c r="B75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>52</v>
+      </c>
+      <c r="B76" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" t="s">
+        <v>143</v>
+      </c>
+      <c r="D76">
+        <v>6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>53</v>
+      </c>
+      <c r="B77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>53</v>
+      </c>
+      <c r="B78" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" t="s">
+        <v>145</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>53</v>
+      </c>
+      <c r="B79" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>54</v>
+      </c>
+      <c r="B80" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" t="s">
+        <v>147</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>54</v>
+      </c>
+      <c r="B81" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" t="s">
+        <v>147</v>
+      </c>
+      <c r="D81">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>54</v>
+      </c>
+      <c r="B82" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" t="s">
+        <v>147</v>
+      </c>
+      <c r="D82">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>55</v>
+      </c>
+      <c r="B83" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" t="s">
+        <v>149</v>
+      </c>
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>55</v>
+      </c>
+      <c r="B84" t="s">
+        <v>148</v>
+      </c>
+      <c r="C84" t="s">
+        <v>149</v>
+      </c>
+      <c r="D84">
+        <v>11</v>
+      </c>
+      <c r="E84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>56</v>
+      </c>
+      <c r="B85" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" t="s">
+        <v>151</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>56</v>
+      </c>
+      <c r="B86" t="s">
+        <v>150</v>
+      </c>
+      <c r="C86" t="s">
+        <v>151</v>
+      </c>
+      <c r="D86">
+        <v>6</v>
+      </c>
+      <c r="E86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>56</v>
+      </c>
+      <c r="B87" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" t="s">
+        <v>151</v>
+      </c>
+      <c r="D87">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>57</v>
+      </c>
+      <c r="B88" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" t="s">
+        <v>153</v>
+      </c>
+      <c r="D88">
+        <v>7</v>
+      </c>
+      <c r="E88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>57</v>
+      </c>
+      <c r="B89" t="s">
+        <v>152</v>
+      </c>
+      <c r="C89" t="s">
+        <v>153</v>
+      </c>
+      <c r="D89">
+        <v>10</v>
+      </c>
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>57</v>
+      </c>
+      <c r="B90" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90" t="s">
+        <v>153</v>
+      </c>
+      <c r="D90">
+        <v>12</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>57</v>
+      </c>
+      <c r="B91" t="s">
+        <v>152</v>
+      </c>
+      <c r="C91" t="s">
+        <v>153</v>
+      </c>
+      <c r="D91">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>58</v>
+      </c>
+      <c r="B92" t="s">
+        <v>154</v>
+      </c>
+      <c r="C92" t="s">
+        <v>155</v>
+      </c>
+      <c r="D92">
+        <v>8</v>
+      </c>
+      <c r="E92" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>59</v>
+      </c>
+      <c r="B93" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" t="s">
+        <v>157</v>
+      </c>
+      <c r="D93">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>59</v>
+      </c>
+      <c r="B94" t="s">
+        <v>156</v>
+      </c>
+      <c r="C94" t="s">
+        <v>157</v>
+      </c>
+      <c r="D94">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>60</v>
+      </c>
+      <c r="B95" t="s">
+        <v>158</v>
+      </c>
+      <c r="C95" t="s">
+        <v>159</v>
+      </c>
+      <c r="D95">
+        <v>11</v>
+      </c>
+      <c r="E95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>61</v>
+      </c>
+      <c r="B96" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" t="s">
+        <v>161</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>61</v>
+      </c>
+      <c r="B97" t="s">
+        <v>160</v>
+      </c>
+      <c r="C97" t="s">
+        <v>161</v>
+      </c>
+      <c r="D97">
+        <v>12</v>
+      </c>
+      <c r="E97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>62</v>
+      </c>
+      <c r="B98" t="s">
+        <v>162</v>
+      </c>
+      <c r="C98" t="s">
+        <v>163</v>
+      </c>
+      <c r="D98">
+        <v>8</v>
+      </c>
+      <c r="E98" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>62</v>
+      </c>
+      <c r="B99" t="s">
+        <v>162</v>
+      </c>
+      <c r="C99" t="s">
+        <v>163</v>
+      </c>
+      <c r="D99">
+        <v>13</v>
+      </c>
+      <c r="E99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>63</v>
+      </c>
+      <c r="B100" t="s">
+        <v>164</v>
+      </c>
+      <c r="C100" t="s">
+        <v>165</v>
+      </c>
+      <c r="D100">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>64</v>
+      </c>
+      <c r="B101" t="s">
+        <v>166</v>
+      </c>
+      <c r="C101" t="s">
+        <v>167</v>
+      </c>
+      <c r="D101">
+        <v>10</v>
+      </c>
+      <c r="E101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>67</v>
+      </c>
+      <c r="B102" t="s">
+        <v>168</v>
+      </c>
+      <c r="C102" t="s">
+        <v>169</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>67</v>
+      </c>
+      <c r="B103" t="s">
+        <v>168</v>
+      </c>
+      <c r="C103" t="s">
+        <v>169</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>68</v>
+      </c>
+      <c r="B104" t="s">
+        <v>170</v>
+      </c>
+      <c r="C104" t="s">
+        <v>171</v>
+      </c>
+      <c r="D104">
+        <v>4</v>
+      </c>
+      <c r="E104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>68</v>
+      </c>
+      <c r="B105" t="s">
+        <v>170</v>
+      </c>
+      <c r="C105" t="s">
+        <v>171</v>
+      </c>
+      <c r="D105">
+        <v>10</v>
+      </c>
+      <c r="E105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>68</v>
+      </c>
+      <c r="B106" t="s">
+        <v>170</v>
+      </c>
+      <c r="C106" t="s">
+        <v>171</v>
+      </c>
+      <c r="D106">
+        <v>13</v>
+      </c>
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>69</v>
+      </c>
+      <c r="B107" t="s">
+        <v>172</v>
+      </c>
+      <c r="C107" t="s">
+        <v>173</v>
+      </c>
+      <c r="D107">
+        <v>7</v>
+      </c>
+      <c r="E107" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>70</v>
+      </c>
+      <c r="B108" t="s">
+        <v>174</v>
+      </c>
+      <c r="C108" t="s">
+        <v>175</v>
+      </c>
+      <c r="D108">
+        <v>11</v>
+      </c>
+      <c r="E108" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>71</v>
+      </c>
+      <c r="B109" t="s">
+        <v>176</v>
+      </c>
+      <c r="C109" t="s">
+        <v>177</v>
+      </c>
+      <c r="D109">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>72</v>
+      </c>
+      <c r="B110" t="s">
+        <v>178</v>
+      </c>
+      <c r="C110" t="s">
+        <v>179</v>
+      </c>
+      <c r="D110">
+        <v>6</v>
+      </c>
+      <c r="E110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>73</v>
+      </c>
+      <c r="B111" t="s">
+        <v>180</v>
+      </c>
+      <c r="C111" t="s">
+        <v>181</v>
+      </c>
+      <c r="D111">
+        <v>7</v>
+      </c>
+      <c r="E111" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>74</v>
+      </c>
+      <c r="B112" t="s">
+        <v>182</v>
+      </c>
+      <c r="C112" t="s">
+        <v>183</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>76</v>
+      </c>
+      <c r="B113" t="s">
+        <v>184</v>
+      </c>
+      <c r="C113" t="s">
+        <v>185</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>77</v>
+      </c>
+      <c r="B114" t="s">
+        <v>186</v>
+      </c>
+      <c r="C114" t="s">
+        <v>187</v>
+      </c>
+      <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="E114" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>78</v>
+      </c>
+      <c r="B115" t="s">
+        <v>188</v>
+      </c>
+      <c r="C115" t="s">
+        <v>189</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>78</v>
+      </c>
+      <c r="B116" t="s">
+        <v>188</v>
+      </c>
+      <c r="C116" t="s">
+        <v>189</v>
+      </c>
+      <c r="D116">
+        <v>6</v>
+      </c>
+      <c r="E116" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>79</v>
+      </c>
+      <c r="B117" t="s">
+        <v>190</v>
+      </c>
+      <c r="C117" t="s">
+        <v>191</v>
+      </c>
+      <c r="D117">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>79</v>
+      </c>
+      <c r="B118" t="s">
+        <v>190</v>
+      </c>
+      <c r="C118" t="s">
+        <v>191</v>
+      </c>
+      <c r="D118">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>80</v>
+      </c>
+      <c r="B119" t="s">
+        <v>192</v>
+      </c>
+      <c r="C119" t="s">
+        <v>193</v>
+      </c>
+      <c r="D119">
+        <v>11</v>
+      </c>
+      <c r="E119" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>81</v>
+      </c>
+      <c r="B120" t="s">
+        <v>194</v>
+      </c>
+      <c r="C120" t="s">
+        <v>195</v>
+      </c>
+      <c r="D120">
+        <v>13</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>81</v>
+      </c>
+      <c r="B121" t="s">
+        <v>194</v>
+      </c>
+      <c r="C121" t="s">
+        <v>195</v>
+      </c>
+      <c r="D121">
+        <v>14</v>
+      </c>
+      <c r="E121" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>82</v>
+      </c>
+      <c r="B122" t="s">
+        <v>196</v>
+      </c>
+      <c r="C122" t="s">
+        <v>197</v>
+      </c>
+      <c r="D122">
+        <v>10</v>
+      </c>
+      <c r="E122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>83</v>
+      </c>
+      <c r="B123" t="s">
+        <v>198</v>
+      </c>
+      <c r="C123" t="s">
+        <v>199</v>
+      </c>
+      <c r="D123">
+        <v>9</v>
+      </c>
+      <c r="E123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>84</v>
+      </c>
+      <c r="B124" t="s">
+        <v>200</v>
+      </c>
+      <c r="C124" t="s">
+        <v>201</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>84</v>
+      </c>
+      <c r="B125" t="s">
+        <v>200</v>
+      </c>
+      <c r="C125" t="s">
+        <v>201</v>
+      </c>
+      <c r="D125">
+        <v>6</v>
+      </c>
+      <c r="E125" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>85</v>
+      </c>
+      <c r="B126" t="s">
+        <v>202</v>
+      </c>
+      <c r="C126" t="s">
+        <v>203</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+      <c r="E126" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>86</v>
+      </c>
+      <c r="B127" t="s">
+        <v>204</v>
+      </c>
+      <c r="C127" t="s">
+        <v>205</v>
+      </c>
+      <c r="D127">
+        <v>8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>87</v>
+      </c>
+      <c r="B128" t="s">
+        <v>206</v>
+      </c>
+      <c r="C128" t="s">
+        <v>207</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>87</v>
+      </c>
+      <c r="B129" t="s">
+        <v>206</v>
+      </c>
+      <c r="C129" t="s">
+        <v>207</v>
+      </c>
+      <c r="D129">
+        <v>12</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>88</v>
+      </c>
+      <c r="B130" t="s">
+        <v>208</v>
+      </c>
+      <c r="C130" t="s">
+        <v>209</v>
+      </c>
+      <c r="D130">
+        <v>10</v>
+      </c>
+      <c r="E130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>89</v>
+      </c>
+      <c r="B131" t="s">
+        <v>210</v>
+      </c>
+      <c r="C131" t="s">
+        <v>211</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>90</v>
+      </c>
+      <c r="B132" t="s">
+        <v>212</v>
+      </c>
+      <c r="C132" t="s">
+        <v>213</v>
+      </c>
+      <c r="D132">
+        <v>11</v>
+      </c>
+      <c r="E132" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>94</v>
+      </c>
+      <c r="B133" t="s">
+        <v>214</v>
+      </c>
+      <c r="C133" t="s">
+        <v>215</v>
+      </c>
+      <c r="D133">
+        <v>13</v>
+      </c>
+      <c r="E133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>95</v>
+      </c>
+      <c r="B134" t="s">
+        <v>216</v>
+      </c>
+      <c r="C134" t="s">
+        <v>217</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+      <c r="E134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>96</v>
+      </c>
+      <c r="B135" t="s">
+        <v>218</v>
+      </c>
+      <c r="C135" t="s">
+        <v>219</v>
+      </c>
+      <c r="D135">
+        <v>8</v>
+      </c>
+      <c r="E135" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>96</v>
+      </c>
+      <c r="B136" t="s">
+        <v>218</v>
+      </c>
+      <c r="C136" t="s">
+        <v>219</v>
+      </c>
+      <c r="D136">
+        <v>10</v>
+      </c>
+      <c r="E136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>98</v>
+      </c>
+      <c r="B137" t="s">
+        <v>220</v>
+      </c>
+      <c r="C137" t="s">
+        <v>221</v>
+      </c>
+      <c r="D137">
+        <v>4</v>
+      </c>
+      <c r="E137" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E137">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="6A"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>94</v>
+      </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22">
-        <v>14</v>
+        <v>234</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23">
-        <v>8</v>
+        <v>235</v>
+      </c>
+      <c r="C23">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24">
-        <v>7</v>
+        <v>235</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25">
-        <v>9</v>
+        <v>235</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>236</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26">
-        <v>11</v>
+        <v>238</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
+        <v>238</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28">
-        <v>12</v>
+        <v>239</v>
+      </c>
+      <c r="C28">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29">
-        <v>8</v>
+        <v>239</v>
+      </c>
+      <c r="C29">
+        <v>29</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30">
-        <v>13</v>
+        <v>239</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>110</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31">
-        <v>14</v>
+        <v>240</v>
+      </c>
+      <c r="C31">
+        <v>31</v>
+      </c>
+      <c r="D31" t="s">
+        <v>112</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2181,1784 +4748,1172 @@
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32">
-        <v>10</v>
+        <v>240</v>
+      </c>
+      <c r="C32">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>114</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
+        <v>240</v>
+      </c>
+      <c r="C33">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
+        <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
+        <v>241</v>
+      </c>
+      <c r="C34">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>118</v>
       </c>
       <c r="E34" t="s">
-        <v>1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D35">
-        <v>4</v>
+        <v>241</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>120</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36">
-        <v>10</v>
+        <v>242</v>
+      </c>
+      <c r="C36">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>122</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37">
-        <v>13</v>
+        <v>242</v>
+      </c>
+      <c r="C37">
+        <v>37</v>
+      </c>
+      <c r="D37" t="s">
+        <v>124</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38">
-        <v>7</v>
+        <v>242</v>
+      </c>
+      <c r="C38">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>126</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39">
-        <v>11</v>
+        <v>243</v>
+      </c>
+      <c r="C39">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>128</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40">
-        <v>14</v>
+        <v>243</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>130</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41">
-        <v>6</v>
+        <v>243</v>
+      </c>
+      <c r="C41">
+        <v>41</v>
+      </c>
+      <c r="D41" t="s">
+        <v>244</v>
       </c>
       <c r="E41" t="s">
-        <v>27</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C42" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42">
-        <v>7</v>
+        <v>246</v>
+      </c>
+      <c r="C42">
+        <v>42</v>
+      </c>
+      <c r="D42" t="s">
+        <v>247</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
+        <v>246</v>
+      </c>
+      <c r="C43">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
+        <v>249</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" t="s">
-        <v>103</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
+        <v>246</v>
+      </c>
+      <c r="C44">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>132</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45">
-        <v>4</v>
+        <v>251</v>
+      </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
+      <c r="D45" t="s">
+        <v>134</v>
       </c>
       <c r="E45" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" t="s">
-        <v>107</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
+        <v>251</v>
+      </c>
+      <c r="C46">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>136</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47">
-        <v>6</v>
+        <v>252</v>
+      </c>
+      <c r="C47">
+        <v>47</v>
+      </c>
+      <c r="D47" t="s">
+        <v>253</v>
       </c>
       <c r="E47" t="s">
-        <v>27</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
-      </c>
-      <c r="C48" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48">
-        <v>8</v>
+        <v>252</v>
+      </c>
+      <c r="C48">
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
+        <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49">
-        <v>12</v>
+        <v>252</v>
+      </c>
+      <c r="C49">
+        <v>49</v>
+      </c>
+      <c r="D49" t="s">
+        <v>255</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50">
-        <v>11</v>
+        <v>257</v>
+      </c>
+      <c r="C50">
+        <v>50</v>
+      </c>
+      <c r="D50" t="s">
+        <v>258</v>
       </c>
       <c r="E50" t="s">
-        <v>29</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C51" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51">
-        <v>13</v>
+        <v>257</v>
+      </c>
+      <c r="C51">
+        <v>51</v>
+      </c>
+      <c r="D51" t="s">
+        <v>140</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52">
-        <v>14</v>
+        <v>260</v>
+      </c>
+      <c r="C52">
+        <v>52</v>
+      </c>
+      <c r="D52" t="s">
+        <v>142</v>
       </c>
       <c r="E52" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53">
-        <v>10</v>
+        <v>260</v>
+      </c>
+      <c r="C53">
+        <v>53</v>
+      </c>
+      <c r="D53" t="s">
+        <v>144</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" t="s">
-        <v>117</v>
-      </c>
-      <c r="D54">
-        <v>9</v>
+        <v>260</v>
+      </c>
+      <c r="C54">
+        <v>54</v>
+      </c>
+      <c r="D54" t="s">
+        <v>146</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" t="s">
-        <v>119</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
+        <v>261</v>
+      </c>
+      <c r="C55">
+        <v>55</v>
+      </c>
+      <c r="D55" t="s">
+        <v>148</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" t="s">
-        <v>119</v>
-      </c>
-      <c r="D56">
-        <v>6</v>
+        <v>261</v>
+      </c>
+      <c r="C56">
+        <v>56</v>
+      </c>
+      <c r="D56" t="s">
+        <v>150</v>
       </c>
       <c r="E56" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57">
-        <v>5</v>
+        <v>261</v>
+      </c>
+      <c r="C57">
+        <v>57</v>
+      </c>
+      <c r="D57" t="s">
+        <v>152</v>
       </c>
       <c r="E57" t="s">
-        <v>2</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" t="s">
-        <v>123</v>
-      </c>
-      <c r="D58">
-        <v>8</v>
+        <v>262</v>
+      </c>
+      <c r="C58">
+        <v>58</v>
+      </c>
+      <c r="D58" t="s">
+        <v>154</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
-      </c>
-      <c r="C59" t="s">
-        <v>125</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
+        <v>262</v>
+      </c>
+      <c r="C59">
+        <v>59</v>
+      </c>
+      <c r="D59" t="s">
+        <v>156</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
-      </c>
-      <c r="C60" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60">
-        <v>12</v>
+        <v>263</v>
+      </c>
+      <c r="C60">
+        <v>60</v>
+      </c>
+      <c r="D60" t="s">
+        <v>158</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61" t="s">
-        <v>127</v>
-      </c>
-      <c r="D61">
-        <v>10</v>
+        <v>263</v>
+      </c>
+      <c r="C61">
+        <v>61</v>
+      </c>
+      <c r="D61" t="s">
+        <v>160</v>
       </c>
       <c r="E61" t="s">
-        <v>6</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
-      </c>
-      <c r="C62" t="s">
-        <v>129</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
+        <v>263</v>
+      </c>
+      <c r="C62">
+        <v>62</v>
+      </c>
+      <c r="D62" t="s">
+        <v>162</v>
       </c>
       <c r="E62" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
-      </c>
-      <c r="C63" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63">
-        <v>11</v>
+        <v>264</v>
+      </c>
+      <c r="C63">
+        <v>63</v>
+      </c>
+      <c r="D63" t="s">
+        <v>164</v>
       </c>
       <c r="E63" t="s">
-        <v>29</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
-      </c>
-      <c r="C64" t="s">
-        <v>133</v>
-      </c>
-      <c r="D64">
-        <v>13</v>
+        <v>264</v>
+      </c>
+      <c r="C64">
+        <v>64</v>
+      </c>
+      <c r="D64" t="s">
+        <v>166</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" t="s">
-        <v>135</v>
-      </c>
-      <c r="D65">
-        <v>5</v>
+        <v>265</v>
+      </c>
+      <c r="C65">
+        <v>65</v>
+      </c>
+      <c r="D65" t="s">
+        <v>266</v>
       </c>
       <c r="E65" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>136</v>
-      </c>
-      <c r="C66" t="s">
-        <v>137</v>
-      </c>
-      <c r="D66">
-        <v>8</v>
+        <v>265</v>
+      </c>
+      <c r="C66">
+        <v>66</v>
+      </c>
+      <c r="D66" t="s">
+        <v>268</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
-      </c>
-      <c r="C67" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67">
-        <v>10</v>
+        <v>265</v>
+      </c>
+      <c r="C67">
+        <v>67</v>
+      </c>
+      <c r="D67" t="s">
+        <v>168</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
-      </c>
-      <c r="C68" t="s">
-        <v>139</v>
-      </c>
-      <c r="D68">
-        <v>4</v>
+        <v>270</v>
+      </c>
+      <c r="C68">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>170</v>
       </c>
       <c r="E68" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" t="s">
-        <v>141</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
+        <v>270</v>
+      </c>
+      <c r="C69">
+        <v>69</v>
+      </c>
+      <c r="D69" t="s">
+        <v>172</v>
       </c>
       <c r="E69" t="s">
-        <v>20</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C70" t="s">
-        <v>141</v>
-      </c>
-      <c r="D70">
-        <v>2</v>
+        <v>270</v>
+      </c>
+      <c r="C70">
+        <v>70</v>
+      </c>
+      <c r="D70" t="s">
+        <v>174</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
-      </c>
-      <c r="C71" t="s">
-        <v>141</v>
-      </c>
-      <c r="D71">
-        <v>3</v>
+        <v>271</v>
+      </c>
+      <c r="C71">
+        <v>71</v>
+      </c>
+      <c r="D71" t="s">
+        <v>176</v>
       </c>
       <c r="E71" t="s">
-        <v>1</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
-      </c>
-      <c r="C72" t="s">
-        <v>141</v>
-      </c>
-      <c r="D72">
-        <v>9</v>
+        <v>271</v>
+      </c>
+      <c r="C72">
+        <v>72</v>
+      </c>
+      <c r="D72" t="s">
+        <v>178</v>
       </c>
       <c r="E72" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
-      </c>
-      <c r="C73" t="s">
-        <v>143</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
+        <v>272</v>
+      </c>
+      <c r="C73">
+        <v>73</v>
+      </c>
+      <c r="D73" t="s">
+        <v>180</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
-      </c>
-      <c r="C74" t="s">
-        <v>143</v>
-      </c>
-      <c r="D74">
-        <v>4</v>
+        <v>272</v>
+      </c>
+      <c r="C74">
+        <v>74</v>
+      </c>
+      <c r="D74" t="s">
+        <v>182</v>
       </c>
       <c r="E74" t="s">
-        <v>21</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>142</v>
-      </c>
-      <c r="C75" t="s">
-        <v>143</v>
-      </c>
-      <c r="D75">
-        <v>6</v>
+        <v>273</v>
+      </c>
+      <c r="C75">
+        <v>75</v>
+      </c>
+      <c r="D75" t="s">
+        <v>274</v>
       </c>
       <c r="E75" t="s">
-        <v>27</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
-      </c>
-      <c r="C76" t="s">
-        <v>145</v>
-      </c>
-      <c r="D76">
-        <v>3</v>
+        <v>273</v>
+      </c>
+      <c r="C76">
+        <v>76</v>
+      </c>
+      <c r="D76" t="s">
+        <v>184</v>
       </c>
       <c r="E76" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
-      </c>
-      <c r="C77" t="s">
-        <v>145</v>
-      </c>
-      <c r="D77">
-        <v>6</v>
+        <v>276</v>
+      </c>
+      <c r="C77">
+        <v>77</v>
+      </c>
+      <c r="D77" t="s">
+        <v>186</v>
       </c>
       <c r="E77" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
-      </c>
-      <c r="C78" t="s">
-        <v>145</v>
-      </c>
-      <c r="D78">
-        <v>9</v>
+        <v>276</v>
+      </c>
+      <c r="C78">
+        <v>78</v>
+      </c>
+      <c r="D78" t="s">
+        <v>188</v>
       </c>
       <c r="E78" t="s">
-        <v>15</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B79" t="s">
-        <v>146</v>
-      </c>
-      <c r="C79" t="s">
-        <v>147</v>
-      </c>
-      <c r="D79">
-        <v>4</v>
+        <v>277</v>
+      </c>
+      <c r="C79">
+        <v>79</v>
+      </c>
+      <c r="D79" t="s">
+        <v>190</v>
       </c>
       <c r="E79" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B80" t="s">
-        <v>146</v>
-      </c>
-      <c r="C80" t="s">
-        <v>147</v>
-      </c>
-      <c r="D80">
-        <v>8</v>
+        <v>277</v>
+      </c>
+      <c r="C80">
+        <v>80</v>
+      </c>
+      <c r="D80" t="s">
+        <v>192</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B81" t="s">
-        <v>146</v>
-      </c>
-      <c r="C81" t="s">
-        <v>147</v>
-      </c>
-      <c r="D81">
-        <v>13</v>
+        <v>278</v>
+      </c>
+      <c r="C81">
+        <v>81</v>
+      </c>
+      <c r="D81" t="s">
+        <v>194</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
-      </c>
-      <c r="C82" t="s">
-        <v>149</v>
-      </c>
-      <c r="D82">
-        <v>5</v>
+        <v>278</v>
+      </c>
+      <c r="C82">
+        <v>82</v>
+      </c>
+      <c r="D82" t="s">
+        <v>196</v>
       </c>
       <c r="E82" t="s">
-        <v>2</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
-      </c>
-      <c r="C83" t="s">
-        <v>149</v>
-      </c>
-      <c r="D83">
-        <v>11</v>
+        <v>278</v>
+      </c>
+      <c r="C83">
+        <v>83</v>
+      </c>
+      <c r="D83" t="s">
+        <v>198</v>
       </c>
       <c r="E83" t="s">
-        <v>29</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B84" t="s">
-        <v>150</v>
-      </c>
-      <c r="C84" t="s">
-        <v>151</v>
-      </c>
-      <c r="D84">
-        <v>4</v>
+        <v>279</v>
+      </c>
+      <c r="C84">
+        <v>84</v>
+      </c>
+      <c r="D84" t="s">
+        <v>200</v>
       </c>
       <c r="E84" t="s">
-        <v>21</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B85" t="s">
-        <v>150</v>
-      </c>
-      <c r="C85" t="s">
-        <v>151</v>
-      </c>
-      <c r="D85">
-        <v>6</v>
+        <v>279</v>
+      </c>
+      <c r="C85">
+        <v>85</v>
+      </c>
+      <c r="D85" t="s">
+        <v>202</v>
       </c>
       <c r="E85" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="B86" t="s">
-        <v>150</v>
-      </c>
-      <c r="C86" t="s">
-        <v>151</v>
-      </c>
-      <c r="D86">
-        <v>13</v>
+        <v>280</v>
+      </c>
+      <c r="C86">
+        <v>86</v>
+      </c>
+      <c r="D86" t="s">
+        <v>204</v>
       </c>
       <c r="E86" t="s">
-        <v>9</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C87" t="s">
-        <v>153</v>
-      </c>
-      <c r="D87">
-        <v>7</v>
+        <v>280</v>
+      </c>
+      <c r="C87">
+        <v>87</v>
+      </c>
+      <c r="D87" t="s">
+        <v>206</v>
       </c>
       <c r="E87" t="s">
-        <v>25</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B88" t="s">
-        <v>152</v>
-      </c>
-      <c r="C88" t="s">
-        <v>153</v>
-      </c>
-      <c r="D88">
-        <v>10</v>
+        <v>281</v>
+      </c>
+      <c r="C88">
+        <v>88</v>
+      </c>
+      <c r="D88" t="s">
+        <v>208</v>
       </c>
       <c r="E88" t="s">
-        <v>6</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B89" t="s">
-        <v>152</v>
-      </c>
-      <c r="C89" t="s">
-        <v>153</v>
-      </c>
-      <c r="D89">
-        <v>12</v>
+        <v>281</v>
+      </c>
+      <c r="C89">
+        <v>89</v>
+      </c>
+      <c r="D89" t="s">
+        <v>210</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B90" t="s">
-        <v>152</v>
-      </c>
-      <c r="C90" t="s">
-        <v>153</v>
-      </c>
-      <c r="D90">
-        <v>14</v>
+        <v>282</v>
+      </c>
+      <c r="C90">
+        <v>90</v>
+      </c>
+      <c r="D90" t="s">
+        <v>212</v>
       </c>
       <c r="E90" t="s">
-        <v>4</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B91" t="s">
-        <v>154</v>
-      </c>
-      <c r="C91" t="s">
-        <v>155</v>
-      </c>
-      <c r="D91">
-        <v>8</v>
+        <v>282</v>
+      </c>
+      <c r="C91">
+        <v>91</v>
+      </c>
+      <c r="D91" t="s">
+        <v>283</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>284</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>156</v>
-      </c>
-      <c r="C92" t="s">
-        <v>157</v>
-      </c>
-      <c r="D92">
-        <v>7</v>
+        <v>285</v>
+      </c>
+      <c r="C92">
+        <v>92</v>
+      </c>
+      <c r="D92" t="s">
+        <v>286</v>
       </c>
       <c r="E92" t="s">
-        <v>25</v>
+        <v>287</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>156</v>
-      </c>
-      <c r="C93" t="s">
-        <v>157</v>
-      </c>
-      <c r="D93">
-        <v>9</v>
+        <v>285</v>
+      </c>
+      <c r="C93">
+        <v>93</v>
+      </c>
+      <c r="D93" t="s">
+        <v>288</v>
       </c>
       <c r="E93" t="s">
-        <v>15</v>
+        <v>289</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>158</v>
-      </c>
-      <c r="C94" t="s">
-        <v>159</v>
-      </c>
-      <c r="D94">
-        <v>11</v>
+        <v>285</v>
+      </c>
+      <c r="C94">
+        <v>94</v>
+      </c>
+      <c r="D94" t="s">
+        <v>214</v>
       </c>
       <c r="E94" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B95" t="s">
-        <v>160</v>
-      </c>
-      <c r="C95" t="s">
-        <v>161</v>
-      </c>
-      <c r="D95">
-        <v>3</v>
+        <v>290</v>
+      </c>
+      <c r="C95">
+        <v>95</v>
+      </c>
+      <c r="D95" t="s">
+        <v>216</v>
       </c>
       <c r="E95" t="s">
-        <v>1</v>
+        <v>217</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B96" t="s">
-        <v>160</v>
-      </c>
-      <c r="C96" t="s">
-        <v>161</v>
-      </c>
-      <c r="D96">
-        <v>12</v>
+        <v>290</v>
+      </c>
+      <c r="C96">
+        <v>96</v>
+      </c>
+      <c r="D96" t="s">
+        <v>218</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B97" t="s">
-        <v>162</v>
-      </c>
-      <c r="C97" t="s">
-        <v>163</v>
-      </c>
-      <c r="D97">
-        <v>8</v>
+        <v>290</v>
+      </c>
+      <c r="C97">
+        <v>97</v>
+      </c>
+      <c r="D97" t="s">
+        <v>291</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B98" t="s">
-        <v>162</v>
-      </c>
-      <c r="C98" t="s">
-        <v>163</v>
-      </c>
-      <c r="D98">
-        <v>13</v>
+        <v>293</v>
+      </c>
+      <c r="C98">
+        <v>98</v>
+      </c>
+      <c r="D98" t="s">
+        <v>220</v>
       </c>
       <c r="E98" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="B99" t="s">
-        <v>164</v>
-      </c>
-      <c r="C99" t="s">
-        <v>165</v>
-      </c>
-      <c r="D99">
-        <v>14</v>
+        <v>293</v>
+      </c>
+      <c r="C99">
+        <v>99</v>
+      </c>
+      <c r="D99" t="s">
+        <v>294</v>
       </c>
       <c r="E99" t="s">
-        <v>4</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B100" t="s">
-        <v>166</v>
-      </c>
-      <c r="C100" t="s">
-        <v>167</v>
-      </c>
-      <c r="D100">
-        <v>10</v>
+        <v>293</v>
+      </c>
+      <c r="C100">
+        <v>100</v>
+      </c>
+      <c r="D100" t="s">
+        <v>296</v>
       </c>
       <c r="E100" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>67</v>
-      </c>
-      <c r="B101" t="s">
-        <v>168</v>
-      </c>
-      <c r="C101" t="s">
-        <v>169</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>67</v>
-      </c>
-      <c r="B102" t="s">
-        <v>168</v>
-      </c>
-      <c r="C102" t="s">
-        <v>169</v>
-      </c>
-      <c r="D102">
-        <v>3</v>
-      </c>
-      <c r="E102" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>68</v>
-      </c>
-      <c r="B103" t="s">
-        <v>170</v>
-      </c>
-      <c r="C103" t="s">
-        <v>171</v>
-      </c>
-      <c r="D103">
-        <v>4</v>
-      </c>
-      <c r="E103" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>68</v>
-      </c>
-      <c r="B104" t="s">
-        <v>170</v>
-      </c>
-      <c r="C104" t="s">
-        <v>171</v>
-      </c>
-      <c r="D104">
-        <v>10</v>
-      </c>
-      <c r="E104" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>68</v>
-      </c>
-      <c r="B105" t="s">
-        <v>170</v>
-      </c>
-      <c r="C105" t="s">
-        <v>171</v>
-      </c>
-      <c r="D105">
-        <v>13</v>
-      </c>
-      <c r="E105" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>69</v>
-      </c>
-      <c r="B106" t="s">
-        <v>172</v>
-      </c>
-      <c r="C106" t="s">
-        <v>173</v>
-      </c>
-      <c r="D106">
-        <v>7</v>
-      </c>
-      <c r="E106" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>70</v>
-      </c>
-      <c r="B107" t="s">
-        <v>174</v>
-      </c>
-      <c r="C107" t="s">
-        <v>175</v>
-      </c>
-      <c r="D107">
-        <v>11</v>
-      </c>
-      <c r="E107" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>71</v>
-      </c>
-      <c r="B108" t="s">
-        <v>176</v>
-      </c>
-      <c r="C108" t="s">
-        <v>177</v>
-      </c>
-      <c r="D108">
-        <v>14</v>
-      </c>
-      <c r="E108" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>72</v>
-      </c>
-      <c r="B109" t="s">
-        <v>178</v>
-      </c>
-      <c r="C109" t="s">
-        <v>179</v>
-      </c>
-      <c r="D109">
-        <v>6</v>
-      </c>
-      <c r="E109" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>73</v>
-      </c>
-      <c r="B110" t="s">
-        <v>180</v>
-      </c>
-      <c r="C110" t="s">
-        <v>181</v>
-      </c>
-      <c r="D110">
-        <v>7</v>
-      </c>
-      <c r="E110" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>74</v>
-      </c>
-      <c r="B111" t="s">
-        <v>182</v>
-      </c>
-      <c r="C111" t="s">
-        <v>183</v>
-      </c>
-      <c r="D111">
-        <v>2</v>
-      </c>
-      <c r="E111" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>76</v>
-      </c>
-      <c r="B112" t="s">
-        <v>184</v>
-      </c>
-      <c r="C112" t="s">
-        <v>185</v>
-      </c>
-      <c r="D112">
-        <v>2</v>
-      </c>
-      <c r="E112" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>77</v>
-      </c>
-      <c r="B113" t="s">
-        <v>186</v>
-      </c>
-      <c r="C113" t="s">
-        <v>187</v>
-      </c>
-      <c r="D113">
-        <v>4</v>
-      </c>
-      <c r="E113" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>78</v>
-      </c>
-      <c r="B114" t="s">
-        <v>188</v>
-      </c>
-      <c r="C114" t="s">
-        <v>189</v>
-      </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
-      <c r="E114" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>78</v>
-      </c>
-      <c r="B115" t="s">
-        <v>188</v>
-      </c>
-      <c r="C115" t="s">
-        <v>189</v>
-      </c>
-      <c r="D115">
-        <v>6</v>
-      </c>
-      <c r="E115" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>79</v>
-      </c>
-      <c r="B116" t="s">
-        <v>190</v>
-      </c>
-      <c r="C116" t="s">
-        <v>191</v>
-      </c>
-      <c r="D116">
-        <v>8</v>
-      </c>
-      <c r="E116" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>79</v>
-      </c>
-      <c r="B117" t="s">
-        <v>190</v>
-      </c>
-      <c r="C117" t="s">
-        <v>191</v>
-      </c>
-      <c r="D117">
-        <v>12</v>
-      </c>
-      <c r="E117" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>80</v>
-      </c>
-      <c r="B118" t="s">
-        <v>192</v>
-      </c>
-      <c r="C118" t="s">
-        <v>193</v>
-      </c>
-      <c r="D118">
-        <v>11</v>
-      </c>
-      <c r="E118" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>81</v>
-      </c>
-      <c r="B119" t="s">
-        <v>194</v>
-      </c>
-      <c r="C119" t="s">
-        <v>195</v>
-      </c>
-      <c r="D119">
-        <v>13</v>
-      </c>
-      <c r="E119" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>81</v>
-      </c>
-      <c r="B120" t="s">
-        <v>194</v>
-      </c>
-      <c r="C120" t="s">
-        <v>195</v>
-      </c>
-      <c r="D120">
-        <v>14</v>
-      </c>
-      <c r="E120" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>82</v>
-      </c>
-      <c r="B121" t="s">
-        <v>196</v>
-      </c>
-      <c r="C121" t="s">
-        <v>197</v>
-      </c>
-      <c r="D121">
-        <v>10</v>
-      </c>
-      <c r="E121" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>83</v>
-      </c>
-      <c r="B122" t="s">
-        <v>198</v>
-      </c>
-      <c r="C122" t="s">
-        <v>199</v>
-      </c>
-      <c r="D122">
-        <v>9</v>
-      </c>
-      <c r="E122" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>84</v>
-      </c>
-      <c r="B123" t="s">
-        <v>200</v>
-      </c>
-      <c r="C123" t="s">
-        <v>201</v>
-      </c>
-      <c r="D123">
-        <v>2</v>
-      </c>
-      <c r="E123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>84</v>
-      </c>
-      <c r="B124" t="s">
-        <v>200</v>
-      </c>
-      <c r="C124" t="s">
-        <v>201</v>
-      </c>
-      <c r="D124">
-        <v>6</v>
-      </c>
-      <c r="E124" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>85</v>
-      </c>
-      <c r="B125" t="s">
-        <v>202</v>
-      </c>
-      <c r="C125" t="s">
-        <v>203</v>
-      </c>
-      <c r="D125">
-        <v>5</v>
-      </c>
-      <c r="E125" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>86</v>
-      </c>
-      <c r="B126" t="s">
-        <v>204</v>
-      </c>
-      <c r="C126" t="s">
-        <v>205</v>
-      </c>
-      <c r="D126">
-        <v>8</v>
-      </c>
-      <c r="E126" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>87</v>
-      </c>
-      <c r="B127" t="s">
-        <v>206</v>
-      </c>
-      <c r="C127" t="s">
-        <v>207</v>
-      </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-      <c r="E127" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>87</v>
-      </c>
-      <c r="B128" t="s">
-        <v>206</v>
-      </c>
-      <c r="C128" t="s">
-        <v>207</v>
-      </c>
-      <c r="D128">
-        <v>12</v>
-      </c>
-      <c r="E128" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>88</v>
-      </c>
-      <c r="B129" t="s">
-        <v>208</v>
-      </c>
-      <c r="C129" t="s">
-        <v>209</v>
-      </c>
-      <c r="D129">
-        <v>10</v>
-      </c>
-      <c r="E129" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>89</v>
-      </c>
-      <c r="B130" t="s">
-        <v>210</v>
-      </c>
-      <c r="C130" t="s">
-        <v>211</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>90</v>
-      </c>
-      <c r="B131" t="s">
-        <v>212</v>
-      </c>
-      <c r="C131" t="s">
-        <v>213</v>
-      </c>
-      <c r="D131">
-        <v>11</v>
-      </c>
-      <c r="E131" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>94</v>
-      </c>
-      <c r="B132" t="s">
-        <v>214</v>
-      </c>
-      <c r="C132" t="s">
-        <v>215</v>
-      </c>
-      <c r="D132">
-        <v>13</v>
-      </c>
-      <c r="E132" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>95</v>
-      </c>
-      <c r="B133" t="s">
-        <v>216</v>
-      </c>
-      <c r="C133" t="s">
-        <v>217</v>
-      </c>
-      <c r="D133">
-        <v>5</v>
-      </c>
-      <c r="E133" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>96</v>
-      </c>
-      <c r="B134" t="s">
-        <v>218</v>
-      </c>
-      <c r="C134" t="s">
-        <v>219</v>
-      </c>
-      <c r="D134">
-        <v>8</v>
-      </c>
-      <c r="E134" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>96</v>
-      </c>
-      <c r="B135" t="s">
-        <v>218</v>
-      </c>
-      <c r="C135" t="s">
-        <v>219</v>
-      </c>
-      <c r="D135">
-        <v>10</v>
-      </c>
-      <c r="E135" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>98</v>
-      </c>
-      <c r="B136" t="s">
-        <v>220</v>
-      </c>
-      <c r="C136" t="s">
-        <v>221</v>
-      </c>
-      <c r="D136">
-        <v>4</v>
-      </c>
-      <c r="E136" t="s">
-        <v>21</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/doc/data/small/data.xlsx
+++ b/doc/data/small/data.xlsx
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Grupos estudiantes'!$A$1:$E$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Grupos-profesores'!$A$1:$E$37</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,18 +32,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="298">
   <si>
-    <t>Ulla Stout</t>
-  </si>
-  <si>
     <t>1A</t>
   </si>
   <si>
     <t>3G</t>
   </si>
   <si>
-    <t>Benedict H. Paul</t>
-  </si>
-  <si>
     <t>8C</t>
   </si>
   <si>
@@ -52,9 +47,6 @@
     <t>6A</t>
   </si>
   <si>
-    <t>Whitney G. Ball</t>
-  </si>
-  <si>
     <t>1C</t>
   </si>
   <si>
@@ -70,36 +62,21 @@
     <t>Melanie C. Mcmahon</t>
   </si>
   <si>
-    <t>Tad Owens</t>
-  </si>
-  <si>
-    <t>Odysseus T. Wade</t>
-  </si>
-  <si>
     <t>5B</t>
   </si>
   <si>
     <t>Lesley Sweet</t>
   </si>
   <si>
-    <t>Brenden Patterson</t>
-  </si>
-  <si>
     <t>Idona Pugh</t>
   </si>
   <si>
-    <t>Cassidy O. Gutierrez</t>
-  </si>
-  <si>
     <t>1B</t>
   </si>
   <si>
     <t>2U</t>
   </si>
   <si>
-    <t>Conan M. Hartman</t>
-  </si>
-  <si>
     <t>Benedict J. Barry</t>
   </si>
   <si>
@@ -109,9 +86,6 @@
     <t>3P</t>
   </si>
   <si>
-    <t>Vernon P. Arnold</t>
-  </si>
-  <si>
     <t>3J</t>
   </si>
   <si>
@@ -121,9 +95,6 @@
     <t>8A</t>
   </si>
   <si>
-    <t>Cameron D. Fuentes</t>
-  </si>
-  <si>
     <t>Kelly I. Cantu</t>
   </si>
   <si>
@@ -205,21 +176,12 @@
     <t>RNEB387911JEAEEM84</t>
   </si>
   <si>
-    <t>Phelan H. Dillard</t>
-  </si>
-  <si>
     <t>Ed57176ae9</t>
   </si>
   <si>
-    <t>Noble Z. Mclaughlin</t>
-  </si>
-  <si>
     <t>E43b69134f</t>
   </si>
   <si>
-    <t>Hope Mayo</t>
-  </si>
-  <si>
     <t>E4876d5a46</t>
   </si>
   <si>
@@ -229,9 +191,6 @@
     <t>E844224d05</t>
   </si>
   <si>
-    <t>Willa Pace</t>
-  </si>
-  <si>
     <t>E28ee69bfd</t>
   </si>
   <si>
@@ -241,9 +200,6 @@
     <t>E6064aa0cc</t>
   </si>
   <si>
-    <t>Jeremy K. Fletcher</t>
-  </si>
-  <si>
     <t>Ed9a1fce33</t>
   </si>
   <si>
@@ -259,9 +215,6 @@
     <t>Edb105bc47</t>
   </si>
   <si>
-    <t>Rylee G. Sellers</t>
-  </si>
-  <si>
     <t>Ed800b99a5</t>
   </si>
   <si>
@@ -313,9 +266,6 @@
     <t>Ea46e6aee0</t>
   </si>
   <si>
-    <t>Nyssa Preston</t>
-  </si>
-  <si>
     <t>Efd9a45fbf</t>
   </si>
   <si>
@@ -325,9 +275,6 @@
     <t>E10d8f2937</t>
   </si>
   <si>
-    <t>Wyatt A. Mathis</t>
-  </si>
-  <si>
     <t>Ec7da581a2</t>
   </si>
   <si>
@@ -923,6 +870,60 @@
   </si>
   <si>
     <t>E6d67db436</t>
+  </si>
+  <si>
+    <t>Lilia Parada Olivas</t>
+  </si>
+  <si>
+    <t>Gabriel Atencio Vela</t>
+  </si>
+  <si>
+    <t>Rocio Verdugo San</t>
+  </si>
+  <si>
+    <t>Ramiro Jugo Pineda</t>
+  </si>
+  <si>
+    <t>Francisco Montejo Villarreal</t>
+  </si>
+  <si>
+    <t>Xochitl Castro Colio</t>
+  </si>
+  <si>
+    <t>Hilda Martinez De La Cruz</t>
+  </si>
+  <si>
+    <t>AnaLeticia Navarro Villasenor</t>
+  </si>
+  <si>
+    <t>Zumac Vílláreal Martinez</t>
+  </si>
+  <si>
+    <t>Geavonna Pignatelli Mendez</t>
+  </si>
+  <si>
+    <t>Roman Leon Cavazos</t>
+  </si>
+  <si>
+    <t>Humberto Pizarro Losada</t>
+  </si>
+  <si>
+    <t>Gabriel Pérez Yraeta</t>
+  </si>
+  <si>
+    <t>Flaco Saso Diaz</t>
+  </si>
+  <si>
+    <t>Victor Padres Rodas</t>
+  </si>
+  <si>
+    <t>Cruz Santos Arguelles</t>
+  </si>
+  <si>
+    <t>Elieis Castano Toledo</t>
+  </si>
+  <si>
+    <t>Ernesto Guerra Pena</t>
   </si>
 </sst>
 </file>
@@ -958,8 +959,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1240,10 +1242,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E36"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,52 +1254,35 @@
     <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>42</v>
-      </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="D2">
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3">
         <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -1307,101 +1293,101 @@
         <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8">
+      <c r="D9">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
       <c r="E9" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1409,67 +1395,67 @@
         <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
         <v>14</v>
       </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
       <c r="E12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>283</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1477,393 +1463,417 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>284</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>284</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>284</v>
       </c>
       <c r="D16">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D17">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
         <v>13</v>
       </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19">
-        <v>5</v>
-      </c>
       <c r="E19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>285</v>
       </c>
       <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21">
         <v>10</v>
       </c>
-      <c r="E20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>61</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21">
-        <v>9</v>
-      </c>
       <c r="E21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
         <v>14</v>
       </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>62</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
       <c r="E23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>286</v>
       </c>
       <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D25">
         <v>4</v>
       </c>
-      <c r="E24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>63</v>
       </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25">
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>66</v>
       </c>
-      <c r="B26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26">
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27">
         <v>10</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>288</v>
+      </c>
+      <c r="D29">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>67</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27">
-        <v>7</v>
-      </c>
-      <c r="E27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>69</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>72</v>
-      </c>
-      <c r="B29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29">
-        <v>7</v>
-      </c>
       <c r="E29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31">
         <v>11</v>
       </c>
-      <c r="E30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>76</v>
       </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31">
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>289</v>
+      </c>
+      <c r="D32">
         <v>13</v>
       </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>79</v>
       </c>
-      <c r="B32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32">
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33">
         <v>8</v>
       </c>
-      <c r="E32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>80</v>
       </c>
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33">
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34">
         <v>14</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>81</v>
-      </c>
-      <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34">
-        <v>5</v>
       </c>
       <c r="E34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>81</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36">
         <v>9</v>
       </c>
-      <c r="E35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>83</v>
       </c>
-      <c r="B36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36">
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37">
         <v>4</v>
       </c>
-      <c r="E36" t="s">
-        <v>21</v>
+      <c r="E37" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E37">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1A"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1874,7 +1884,7 @@
   <dimension ref="A2:E137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2:E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,33 +1897,33 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>290</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1921,16 +1931,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>290</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1938,33 +1948,33 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>290</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1972,16 +1982,16 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>291</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -1989,16 +1999,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>291</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2006,16 +2016,16 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>292</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2023,16 +2033,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>292</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2040,16 +2050,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>292</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D11">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2057,16 +2067,16 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2074,16 +2084,16 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2091,16 +2101,16 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2108,16 +2118,16 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>293</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2125,16 +2135,16 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>293</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D16">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2142,16 +2152,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2159,16 +2169,16 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D18">
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2176,16 +2186,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2193,33 +2203,33 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>294</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2227,16 +2237,16 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>294</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D22">
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2244,16 +2254,16 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>294</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D23">
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2261,16 +2271,16 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D24">
         <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2278,16 +2288,16 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D25">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2295,16 +2305,16 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D26">
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2312,16 +2322,16 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D27">
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2329,16 +2339,16 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2346,16 +2356,16 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="D29">
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2363,16 +2373,16 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D30">
         <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2380,16 +2390,16 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D31">
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2397,33 +2407,33 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D32">
         <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D33">
         <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2431,16 +2441,16 @@
         <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2448,16 +2458,16 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2465,33 +2475,33 @@
         <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D36">
         <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D37">
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2499,16 +2509,16 @@
         <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D38">
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2516,16 +2526,16 @@
         <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D39">
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2533,16 +2543,16 @@
         <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D40">
         <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2550,16 +2560,16 @@
         <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>296</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D41">
         <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2567,16 +2577,16 @@
         <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D42">
         <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2584,50 +2594,50 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>297</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D43">
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2635,33 +2645,33 @@
         <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D46">
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2669,16 +2679,16 @@
         <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D48">
         <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2686,16 +2696,16 @@
         <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D49">
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2703,16 +2713,16 @@
         <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D50">
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2720,16 +2730,16 @@
         <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D51">
         <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2737,16 +2747,16 @@
         <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D52">
         <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2754,33 +2764,33 @@
         <v>31</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D53">
         <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D54">
         <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2788,33 +2798,33 @@
         <v>33</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D55">
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2822,16 +2832,16 @@
         <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D57">
         <v>6</v>
       </c>
       <c r="E57" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2839,16 +2849,16 @@
         <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D58">
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2856,16 +2866,16 @@
         <v>36</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="D59">
         <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2873,16 +2883,16 @@
         <v>37</v>
       </c>
       <c r="B60" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2890,33 +2900,33 @@
         <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="D61">
         <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D62">
         <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2924,16 +2934,16 @@
         <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="C63" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2941,16 +2951,16 @@
         <v>40</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C64" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D64">
         <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2958,16 +2968,16 @@
         <v>44</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D65">
         <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2975,16 +2985,16 @@
         <v>45</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D66">
         <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -2992,33 +3002,33 @@
         <v>46</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D67">
         <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>46</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D68">
         <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3026,16 +3036,16 @@
         <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D69">
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3043,33 +3053,33 @@
         <v>51</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C71" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D71">
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3077,16 +3087,16 @@
         <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C72" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D72">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3094,33 +3104,33 @@
         <v>51</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="D73">
         <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>52</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C74" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D74">
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3128,16 +3138,16 @@
         <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C75" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D75">
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3145,16 +3155,16 @@
         <v>52</v>
       </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="C76" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="D76">
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3162,16 +3172,16 @@
         <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C77" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D77">
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3179,16 +3189,16 @@
         <v>53</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C78" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D78">
         <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3196,16 +3206,16 @@
         <v>53</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C79" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="D79">
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3213,16 +3223,16 @@
         <v>54</v>
       </c>
       <c r="B80" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C80" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D80">
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3230,16 +3240,16 @@
         <v>54</v>
       </c>
       <c r="B81" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C81" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D81">
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3247,16 +3257,16 @@
         <v>54</v>
       </c>
       <c r="B82" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C82" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="D82">
         <v>13</v>
       </c>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3264,16 +3274,16 @@
         <v>55</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C83" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D83">
         <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3281,16 +3291,16 @@
         <v>55</v>
       </c>
       <c r="B84" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C84" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="D84">
         <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3298,16 +3308,16 @@
         <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C85" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D85">
         <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3315,16 +3325,16 @@
         <v>56</v>
       </c>
       <c r="B86" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C86" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D86">
         <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3332,16 +3342,16 @@
         <v>56</v>
       </c>
       <c r="B87" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="C87" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="D87">
         <v>13</v>
       </c>
       <c r="E87" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3349,33 +3359,33 @@
         <v>57</v>
       </c>
       <c r="B88" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C88" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D88">
         <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>57</v>
       </c>
       <c r="B89" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C89" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D89">
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3383,16 +3393,16 @@
         <v>57</v>
       </c>
       <c r="B90" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C90" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D90">
         <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3400,16 +3410,16 @@
         <v>57</v>
       </c>
       <c r="B91" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C91" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D91">
         <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3417,16 +3427,16 @@
         <v>58</v>
       </c>
       <c r="B92" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C92" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="D92">
         <v>8</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3434,16 +3444,16 @@
         <v>59</v>
       </c>
       <c r="B93" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C93" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D93">
         <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3451,16 +3461,16 @@
         <v>59</v>
       </c>
       <c r="B94" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C94" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="D94">
         <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3468,16 +3478,16 @@
         <v>60</v>
       </c>
       <c r="B95" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C95" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D95">
         <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3485,16 +3495,16 @@
         <v>61</v>
       </c>
       <c r="B96" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C96" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D96">
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3502,16 +3512,16 @@
         <v>61</v>
       </c>
       <c r="B97" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="C97" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="D97">
         <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3519,16 +3529,16 @@
         <v>62</v>
       </c>
       <c r="B98" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C98" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D98">
         <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3536,16 +3546,16 @@
         <v>62</v>
       </c>
       <c r="B99" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="C99" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D99">
         <v>13</v>
       </c>
       <c r="E99" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3553,33 +3563,33 @@
         <v>63</v>
       </c>
       <c r="B100" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C100" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="D100">
         <v>14</v>
       </c>
       <c r="E100" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>64</v>
       </c>
       <c r="B101" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="C101" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="D101">
         <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3587,16 +3597,16 @@
         <v>67</v>
       </c>
       <c r="B102" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C102" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3604,16 +3614,16 @@
         <v>67</v>
       </c>
       <c r="B103" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="C103" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D103">
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3621,33 +3631,33 @@
         <v>68</v>
       </c>
       <c r="B104" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C104" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D104">
         <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>68</v>
       </c>
       <c r="B105" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C105" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D105">
         <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3655,16 +3665,16 @@
         <v>68</v>
       </c>
       <c r="B106" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C106" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D106">
         <v>13</v>
       </c>
       <c r="E106" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3672,16 +3682,16 @@
         <v>69</v>
       </c>
       <c r="B107" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C107" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="D107">
         <v>7</v>
       </c>
       <c r="E107" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3689,16 +3699,16 @@
         <v>70</v>
       </c>
       <c r="B108" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C108" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="D108">
         <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3706,16 +3716,16 @@
         <v>71</v>
       </c>
       <c r="B109" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="C109" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D109">
         <v>14</v>
       </c>
       <c r="E109" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3723,16 +3733,16 @@
         <v>72</v>
       </c>
       <c r="B110" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C110" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D110">
         <v>6</v>
       </c>
       <c r="E110" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3740,50 +3750,50 @@
         <v>73</v>
       </c>
       <c r="B111" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="C111" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="D111">
         <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>74</v>
       </c>
       <c r="B112" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C112" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="D112">
         <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>76</v>
       </c>
       <c r="B113" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C113" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D113">
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3791,33 +3801,33 @@
         <v>77</v>
       </c>
       <c r="B114" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C114" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="D114">
         <v>4</v>
       </c>
       <c r="E114" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>78</v>
       </c>
       <c r="B115" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C115" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D115">
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3825,16 +3835,16 @@
         <v>78</v>
       </c>
       <c r="B116" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C116" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D116">
         <v>6</v>
       </c>
       <c r="E116" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3842,16 +3852,16 @@
         <v>79</v>
       </c>
       <c r="B117" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="C117" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D117">
         <v>8</v>
       </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3859,16 +3869,16 @@
         <v>79</v>
       </c>
       <c r="B118" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="C118" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="D118">
         <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3876,16 +3886,16 @@
         <v>80</v>
       </c>
       <c r="B119" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="C119" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D119">
         <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3893,16 +3903,16 @@
         <v>81</v>
       </c>
       <c r="B120" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C120" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D120">
         <v>13</v>
       </c>
       <c r="E120" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3910,33 +3920,33 @@
         <v>81</v>
       </c>
       <c r="B121" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="C121" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D121">
         <v>14</v>
       </c>
       <c r="E121" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>82</v>
       </c>
       <c r="B122" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="C122" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="D122">
         <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3944,33 +3954,33 @@
         <v>83</v>
       </c>
       <c r="B123" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C123" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D123">
         <v>9</v>
       </c>
       <c r="E123" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>84</v>
       </c>
       <c r="B124" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C124" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="D124">
         <v>2</v>
       </c>
       <c r="E124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3978,16 +3988,16 @@
         <v>84</v>
       </c>
       <c r="B125" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C125" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="D125">
         <v>6</v>
       </c>
       <c r="E125" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -3995,16 +4005,16 @@
         <v>85</v>
       </c>
       <c r="B126" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C126" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="D126">
         <v>5</v>
       </c>
       <c r="E126" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4012,16 +4022,16 @@
         <v>86</v>
       </c>
       <c r="B127" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="C127" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="D127">
         <v>8</v>
       </c>
       <c r="E127" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4029,16 +4039,16 @@
         <v>87</v>
       </c>
       <c r="B128" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="C128" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="D128">
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4046,33 +4056,33 @@
         <v>87</v>
       </c>
       <c r="B129" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="C129" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="D129">
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>88</v>
       </c>
       <c r="B130" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="C130" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="D130">
         <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4080,16 +4090,16 @@
         <v>89</v>
       </c>
       <c r="B131" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C131" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="D131">
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4097,16 +4107,16 @@
         <v>90</v>
       </c>
       <c r="B132" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C132" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="D132">
         <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4114,16 +4124,16 @@
         <v>94</v>
       </c>
       <c r="B133" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C133" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="D133">
         <v>13</v>
       </c>
       <c r="E133" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4131,16 +4141,16 @@
         <v>95</v>
       </c>
       <c r="B134" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C134" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="D134">
         <v>5</v>
       </c>
       <c r="E134" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4148,33 +4158,33 @@
         <v>96</v>
       </c>
       <c r="B135" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C135" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="D135">
         <v>8</v>
       </c>
       <c r="E135" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>96</v>
       </c>
       <c r="B136" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C136" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="D136">
         <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -4182,23 +4192,23 @@
         <v>98</v>
       </c>
       <c r="B137" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="C137" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="D137">
         <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E137">
     <filterColumn colId="4">
       <filters>
-        <filter val="6A"/>
+        <filter val="1C"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4208,1715 +4218,2120 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E100"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C1">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>290</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="G1" t="str">
+        <f>CONCATENATE("UPDATE Students SET Token='", E1, "' WHERE StudentId = ",C1)</f>
+        <v>UPDATE Students SET Token='Ed57176ae9' WHERE StudentId = 1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>291</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G65" si="0">CONCATENATE("UPDATE Students SET Token='", E2, "' WHERE StudentId = ",C2)</f>
+        <v>UPDATE Students SET Token='E43b69134f' WHERE StudentId = 2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C3">
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>292</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E4876d5a46' WHERE StudentId = 3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E844224d05' WHERE StudentId = 4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>293</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E28ee69bfd' WHERE StudentId = 5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E6064aa0cc' WHERE StudentId = 6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>294</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='Ed9a1fce33' WHERE StudentId = 7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E6f71a1638' WHERE StudentId = 8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='Edb105bc47' WHERE StudentId = 9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C10">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='Ed800b99a5' WHERE StudentId = 10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C11">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E3e5f97e1e' WHERE StudentId = 11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="C12">
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='Edc1bf3078' WHERE StudentId = 12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C13">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E4a1b5d7ca' WHERE StudentId = 13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C14">
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E96806d39c' WHERE StudentId = 14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="C15">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="E15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E743931085' WHERE StudentId = 15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="C16">
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="E16" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E0795dabd6' WHERE StudentId = 16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="C17">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E38a13e6c5' WHERE StudentId = 17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C18">
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='Ed1f65fdc4' WHERE StudentId = 18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C19">
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E52a68295a' WHERE StudentId = 19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C20">
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='Ea46e6aee0' WHERE StudentId = 20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="C21">
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>296</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='Efd9a45fbf' WHERE StudentId = 21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="C22">
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E10d8f2937' WHERE StudentId = 22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C23">
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>297</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='Ec7da581a2' WHERE StudentId = 23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C24">
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E220b38eee' WHERE StudentId = 24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="C25">
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="E25" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E4f401d2e7' WHERE StudentId = 25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="C26">
         <v>26</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E59cb42bbb' WHERE StudentId = 26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="C27">
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E32efd6588' WHERE StudentId = 27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C28">
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E42c311172' WHERE StudentId = 28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C29">
         <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E5b89b0b59' WHERE StudentId = 29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="C30">
         <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E1c587d2e0' WHERE StudentId = 30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C31">
         <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='Eeec371c11' WHERE StudentId = 31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C32">
         <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E5c8e72029' WHERE StudentId = 32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C33">
         <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='Ecfe9a6fbf' WHERE StudentId = 33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="C34">
         <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E4cb3a4adf' WHERE StudentId = 34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="C35">
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E70bab186e' WHERE StudentId = 35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C36">
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E78ee5b0a7' WHERE StudentId = 36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C37">
         <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='Ec63b98700' WHERE StudentId = 37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C38">
         <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='Ed9c52baf4' WHERE StudentId = 38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C39">
         <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='Efa0a320c6' WHERE StudentId = 39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C40">
         <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='Ea94ca9549' WHERE StudentId = 40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C41">
         <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="E41" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='Ee2093c994' WHERE StudentId = 41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C42">
         <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="E42" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E6a8d75c98' WHERE StudentId = 42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C43">
         <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="E43" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E2381f7f88' WHERE StudentId = 43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="C44">
         <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E850130f6f' WHERE StudentId = 44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C45">
         <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E8f64390c7' WHERE StudentId = 45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>19</v>
       </c>
       <c r="B46" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C46">
         <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E3e7e017a8' WHERE StudentId = 46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C47">
         <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="E47" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='Ef2271aba9' WHERE StudentId = 47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C48">
         <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E61fa3f39d' WHERE StudentId = 48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="C49">
         <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="E49" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E1405284ef' WHERE StudentId = 49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C50">
         <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="E50" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='Ee049a8b84' WHERE StudentId = 50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C51">
         <v>51</v>
       </c>
       <c r="D51" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E51" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E1d9a7a669' WHERE StudentId = 51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C52">
         <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E52" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='Ec2975ddbb' WHERE StudentId = 52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C53">
         <v>53</v>
       </c>
       <c r="D53" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E53" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E73292be1e' WHERE StudentId = 53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C54">
         <v>54</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="E54" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E4e6fafc0b' WHERE StudentId = 54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C55">
         <v>55</v>
       </c>
       <c r="D55" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="E55" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='Ead584d2fe' WHERE StudentId = 55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C56">
         <v>56</v>
       </c>
       <c r="D56" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E56" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E0e07003b4' WHERE StudentId = 56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C57">
         <v>57</v>
       </c>
       <c r="D57" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E57" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E54e8dc5c2' WHERE StudentId = 57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C58">
         <v>58</v>
       </c>
       <c r="D58" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E58" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E86ae620fb' WHERE StudentId = 58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C59">
         <v>59</v>
       </c>
       <c r="D59" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="E59" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E6b0eb00e9' WHERE StudentId = 59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C60">
         <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E60" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E67b5f04c3' WHERE StudentId = 60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C61">
         <v>61</v>
       </c>
       <c r="D61" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="E61" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E84ed6ea88' WHERE StudentId = 61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C62">
         <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="E62" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E7010b2704' WHERE StudentId = 62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C63">
         <v>63</v>
       </c>
       <c r="D63" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="E63" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='Ed41a97753' WHERE StudentId = 63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C64">
         <v>64</v>
       </c>
       <c r="D64" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="E64" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E3a217b282' WHERE StudentId = 64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="C65">
         <v>65</v>
       </c>
       <c r="D65" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="E65" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E312088d60' WHERE StudentId = 65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="C66">
         <v>66</v>
       </c>
       <c r="D66" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="E66" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" ref="G66:G100" si="1">CONCATENATE("UPDATE Students SET Token='", E66, "' WHERE StudentId = ",C66)</f>
+        <v>UPDATE Students SET Token='Ef94d8c9aa' WHERE StudentId = 66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="C67">
         <v>67</v>
       </c>
       <c r="D67" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="E67" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E251d1d46c' WHERE StudentId = 67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="C68">
         <v>68</v>
       </c>
       <c r="D68" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="E68" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E14766b5b0' WHERE StudentId = 68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="C69">
         <v>69</v>
       </c>
       <c r="D69" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E69" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E683f42469' WHERE StudentId = 69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="C70">
         <v>70</v>
       </c>
       <c r="D70" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="E70" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E978c3cc1c' WHERE StudentId = 70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>29</v>
       </c>
       <c r="B71" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C71">
         <v>71</v>
       </c>
       <c r="D71" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="E71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='Ead59180af' WHERE StudentId = 71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>29</v>
       </c>
       <c r="B72" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C72">
         <v>72</v>
       </c>
       <c r="D72" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="E72" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E984689c02' WHERE StudentId = 72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>30</v>
       </c>
       <c r="B73" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C73">
         <v>73</v>
       </c>
       <c r="D73" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="E73" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E5bd44658c' WHERE StudentId = 73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C74">
         <v>74</v>
       </c>
       <c r="D74" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="E74" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='Eecf0856f4' WHERE StudentId = 74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>31</v>
       </c>
       <c r="B75" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="C75">
         <v>75</v>
       </c>
       <c r="D75" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="E75" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E2e7f6e835' WHERE StudentId = 75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>31</v>
       </c>
       <c r="B76" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="C76">
         <v>76</v>
       </c>
       <c r="D76" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="E76" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E5f1b0f309' WHERE StudentId = 76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>32</v>
       </c>
       <c r="B77" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C77">
         <v>77</v>
       </c>
       <c r="D77" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="E77" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E38b439ac5' WHERE StudentId = 77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>32</v>
       </c>
       <c r="B78" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C78">
         <v>78</v>
       </c>
       <c r="D78" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="E78" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E768ab07ea' WHERE StudentId = 78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>33</v>
       </c>
       <c r="B79" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C79">
         <v>79</v>
       </c>
       <c r="D79" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="E79" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E8fb0d9bba' WHERE StudentId = 79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>33</v>
       </c>
       <c r="B80" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C80">
         <v>80</v>
       </c>
       <c r="D80" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="E80" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='Eab715eef0' WHERE StudentId = 80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>34</v>
       </c>
       <c r="B81" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="C81">
         <v>81</v>
       </c>
       <c r="D81" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="E81" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E96b2e662b' WHERE StudentId = 81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>34</v>
       </c>
       <c r="B82" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="C82">
         <v>82</v>
       </c>
       <c r="D82" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="E82" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E8c53f413c' WHERE StudentId = 82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>34</v>
       </c>
       <c r="B83" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="C83">
         <v>83</v>
       </c>
       <c r="D83" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E83" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E9eabe8c6b' WHERE StudentId = 83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>35</v>
       </c>
       <c r="B84" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C84">
         <v>84</v>
       </c>
       <c r="D84" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="E84" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='Edc3cf58a6' WHERE StudentId = 84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>35</v>
       </c>
       <c r="B85" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C85">
         <v>85</v>
       </c>
       <c r="D85" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="E85" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='Ebd33fa5dc' WHERE StudentId = 85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>36</v>
       </c>
       <c r="B86" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C86">
         <v>86</v>
       </c>
       <c r="D86" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="E86" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='Ea474e478b' WHERE StudentId = 86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>36</v>
       </c>
       <c r="B87" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C87">
         <v>87</v>
       </c>
       <c r="D87" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="E87" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='Ef9033b553' WHERE StudentId = 87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>37</v>
       </c>
       <c r="B88" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C88">
         <v>88</v>
       </c>
       <c r="D88" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="E88" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='Ed5888801d' WHERE StudentId = 88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>37</v>
       </c>
       <c r="B89" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C89">
         <v>89</v>
       </c>
       <c r="D89" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="E89" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E805e70522' WHERE StudentId = 89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>38</v>
       </c>
       <c r="B90" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="C90">
         <v>90</v>
       </c>
       <c r="D90" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="E90" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='Ee1dcaa43b' WHERE StudentId = 90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>38</v>
       </c>
       <c r="B91" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="C91">
         <v>91</v>
       </c>
       <c r="D91" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="E91" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E2d868976e' WHERE StudentId = 91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C92">
         <v>92</v>
       </c>
       <c r="D92" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="E92" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E96161f4a4' WHERE StudentId = 92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>39</v>
       </c>
       <c r="B93" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C93">
         <v>93</v>
       </c>
       <c r="D93" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="E93" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E5ebca2d5b' WHERE StudentId = 93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>39</v>
       </c>
       <c r="B94" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C94">
         <v>94</v>
       </c>
       <c r="D94" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="E94" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E1b8dab5f9' WHERE StudentId = 94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>40</v>
       </c>
       <c r="B95" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="C95">
         <v>95</v>
       </c>
       <c r="D95" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="E95" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='Edd5126919' WHERE StudentId = 95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>40</v>
       </c>
       <c r="B96" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="C96">
         <v>96</v>
       </c>
       <c r="D96" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="E96" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E1a77bdf4d' WHERE StudentId = 96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>40</v>
       </c>
       <c r="B97" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="C97">
         <v>97</v>
       </c>
       <c r="D97" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="E97" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='Ea959dadf6' WHERE StudentId = 97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>41</v>
       </c>
       <c r="B98" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="C98">
         <v>98</v>
       </c>
       <c r="D98" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="E98" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E37a0aad0a' WHERE StudentId = 98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>41</v>
       </c>
       <c r="B99" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="C99">
         <v>99</v>
       </c>
       <c r="D99" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="E99" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E88de5bffd' WHERE StudentId = 99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>41</v>
       </c>
       <c r="B100" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="C100">
         <v>100</v>
       </c>
       <c r="D100" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="E100" t="s">
-        <v>297</v>
+        <v>279</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E6d67db436' WHERE StudentId = 100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/data/small/data.xlsx
+++ b/doc/data/small/data.xlsx
@@ -9,16 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Grupos-profesores" sheetId="1" r:id="rId1"/>
     <sheet name="Grupos estudiantes" sheetId="2" r:id="rId2"/>
     <sheet name="Tutores estudiantes" sheetId="3" r:id="rId3"/>
+    <sheet name="Profesores" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Grupos estudiantes'!$A$1:$E$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Grupos estudiantes'!$A$1:$E$138</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Grupos-profesores'!$A$1:$E$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tutores estudiantes'!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="516">
   <si>
     <t>1A</t>
   </si>
@@ -924,19 +926,679 @@
   </si>
   <si>
     <t>Ernesto Guerra Pena</t>
+  </si>
+  <si>
+    <t>VDpFNDNiNjkxMzRm</t>
+  </si>
+  <si>
+    <t>CURP</t>
+  </si>
+  <si>
+    <t>ProfesorId</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>GrupoId</t>
+  </si>
+  <si>
+    <t>Nombre grupo</t>
+  </si>
+  <si>
+    <t>StudentId</t>
+  </si>
+  <si>
+    <t>Nombre estudiante</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>GroupId</t>
+  </si>
+  <si>
+    <t>TutorId</t>
+  </si>
+  <si>
+    <t>Nombre tutor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student Id </t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>UpdateTokeb</t>
+  </si>
+  <si>
+    <t>S:ABKZ607668NVIQTL64:42</t>
+  </si>
+  <si>
+    <t>S:CIBY457198YTWKRU65:47</t>
+  </si>
+  <si>
+    <t>Roman Larralde Tenerio</t>
+  </si>
+  <si>
+    <t>S:DIHO215206MXLITH46:48</t>
+  </si>
+  <si>
+    <t>S:DNEY145989MBPSYA98:49</t>
+  </si>
+  <si>
+    <t>S:DORD624610QZZEVN99:50</t>
+  </si>
+  <si>
+    <t>S:DPUT562123IZFUWF82:51</t>
+  </si>
+  <si>
+    <t>Whilemina E. Waters</t>
+  </si>
+  <si>
+    <t>S:ECHH244928PZSWKV39:52</t>
+  </si>
+  <si>
+    <t>S:EEQK651848EJOLQH20:53</t>
+  </si>
+  <si>
+    <t>S:EJLT584234JIWUNZ66:54</t>
+  </si>
+  <si>
+    <t>S:ETUQ990265LNNWPY72:55</t>
+  </si>
+  <si>
+    <t>S:EVDI600621MLNQSE58:56</t>
+  </si>
+  <si>
+    <t>S:GLBQ347762JXVITH87:59</t>
+  </si>
+  <si>
+    <t>S:JJVE136274OLPMEL24:61</t>
+  </si>
+  <si>
+    <t>S:JNKE968528OEMZYM38:62</t>
+  </si>
+  <si>
+    <t>S:JNNQ826169BUNXKL61:63</t>
+  </si>
+  <si>
+    <t>S:KIPA071118JDCXEI12:66</t>
+  </si>
+  <si>
+    <t>S:KNGP189491BHTZLA30:67</t>
+  </si>
+  <si>
+    <t>S:MEOZ678597VCQSVE52:69</t>
+  </si>
+  <si>
+    <t>Felix Roman Martinez</t>
+  </si>
+  <si>
+    <t>S:MQOH811809QICFJX12:71</t>
+  </si>
+  <si>
+    <t>S:MXRG109651SGRCVR02:72</t>
+  </si>
+  <si>
+    <t>Marilu Toranzo Coronado</t>
+  </si>
+  <si>
+    <t>S:NALN034292LJENRD50:73</t>
+  </si>
+  <si>
+    <t>Latifah F. Spencer</t>
+  </si>
+  <si>
+    <t>S:NFLZ986120WLUAWZ85:74</t>
+  </si>
+  <si>
+    <t>Yvonne Sanchez Heras</t>
+  </si>
+  <si>
+    <t>S:OHGG168545UFKZWK25:75</t>
+  </si>
+  <si>
+    <t>S:PFGI274811RPCQCM60:76</t>
+  </si>
+  <si>
+    <t>Tucker Dale</t>
+  </si>
+  <si>
+    <t>S:QBZC260103AKKGLQ33:78</t>
+  </si>
+  <si>
+    <t>S:QESU380654ENPNFC49:79</t>
+  </si>
+  <si>
+    <t>S:QUES303973KNFCRX18:80</t>
+  </si>
+  <si>
+    <t>S:QXLG177972LXKGXX93:81</t>
+  </si>
+  <si>
+    <t>Francesca Talley</t>
+  </si>
+  <si>
+    <t>S:RDCY650001WIPEDM66:82</t>
+  </si>
+  <si>
+    <t>S:RNEB387911JEAEEM84:83</t>
+  </si>
+  <si>
+    <t>Amity Collier</t>
+  </si>
+  <si>
+    <t>S:RULF435403YOHOZF09:85</t>
+  </si>
+  <si>
+    <t>Kaden Q. Hansen</t>
+  </si>
+  <si>
+    <t>S:SMHQ791666EPFGVY50:87</t>
+  </si>
+  <si>
+    <t>Brent Bowen</t>
+  </si>
+  <si>
+    <t>S:TQRF522341RGBPWE90:89</t>
+  </si>
+  <si>
+    <t>Caryn F. Perkins</t>
+  </si>
+  <si>
+    <t>S:TWZR029759LNJRHD00:90</t>
+  </si>
+  <si>
+    <t>Emma Boyd</t>
+  </si>
+  <si>
+    <t>S:VMOU741869HDWHVP80:91</t>
+  </si>
+  <si>
+    <t>Graham Castillo</t>
+  </si>
+  <si>
+    <t>S:VWEA666263OHTWMA59:92</t>
+  </si>
+  <si>
+    <t>Sara R. Maynard</t>
+  </si>
+  <si>
+    <t>S:WHQM915366DOZAVY26:94</t>
+  </si>
+  <si>
+    <t>Shelley Page</t>
+  </si>
+  <si>
+    <t>S:WJLF457516JPBIRK04:95</t>
+  </si>
+  <si>
+    <t>Margaret Z. Hendricks</t>
+  </si>
+  <si>
+    <t>S:XBCQ421536JEINUA19:98</t>
+  </si>
+  <si>
+    <t>Rama D. Gutierrez</t>
+  </si>
+  <si>
+    <t>S:YKNZ254199YPMTCF46:99</t>
+  </si>
+  <si>
+    <t>Colorado A. Tran</t>
+  </si>
+  <si>
+    <t>S:ZGHA997725IOUCWY25:101</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>Token"</t>
+  </si>
+  <si>
+    <t>Authorization</t>
+  </si>
+  <si>
+    <t>VDpFZDU3MTc2YWU5</t>
+  </si>
+  <si>
+    <t>VDpFNDg3NmQ1YTQ2</t>
+  </si>
+  <si>
+    <t>VDpFODQ0MjI0ZDA1</t>
+  </si>
+  <si>
+    <t>VDpFMjhlZTY5YmZk</t>
+  </si>
+  <si>
+    <t>VDpFNjA2NGFhMGNj</t>
+  </si>
+  <si>
+    <t>VDpFZDlhMWZjZTMz</t>
+  </si>
+  <si>
+    <t>VDpFNmY3MWExNjM4</t>
+  </si>
+  <si>
+    <t>VDpFZGIxMDViYzQ3</t>
+  </si>
+  <si>
+    <t>VDpFZDgwMGI5OWE1</t>
+  </si>
+  <si>
+    <t>VDpFM2U1Zjk3ZTFl</t>
+  </si>
+  <si>
+    <t>VDpFZGMxYmYzMDc4</t>
+  </si>
+  <si>
+    <t>VDpFNGExYjVkN2Nh</t>
+  </si>
+  <si>
+    <t>VDpFOTY4MDZkMzlj</t>
+  </si>
+  <si>
+    <t>VDpFNzQzOTMxMDg1</t>
+  </si>
+  <si>
+    <t>VDpFMDc5NWRhYmQ2</t>
+  </si>
+  <si>
+    <t>VDpFMzhhMTNlNmM1</t>
+  </si>
+  <si>
+    <t>VDpFZDFmNjVmZGM0</t>
+  </si>
+  <si>
+    <t>VDpFNTJhNjgyOTVh</t>
+  </si>
+  <si>
+    <t>VDpFYTQ2ZTZhZWUw</t>
+  </si>
+  <si>
+    <t>VDpFZmQ5YTQ1ZmJm</t>
+  </si>
+  <si>
+    <t>VDpFMTBkOGYyOTM3</t>
+  </si>
+  <si>
+    <t>VDpFYzdkYTU4MWEy</t>
+  </si>
+  <si>
+    <t>VDpFMjIwYjM4ZWVl</t>
+  </si>
+  <si>
+    <t>VDpFNGY0MDFkMmU3</t>
+  </si>
+  <si>
+    <t>VDpFNTljYjQyYmJi</t>
+  </si>
+  <si>
+    <t>VDpFMzJlZmQ2NTg4</t>
+  </si>
+  <si>
+    <t>VDpFNDJjMzExMTcy</t>
+  </si>
+  <si>
+    <t>VDpFNWI4OWIwYjU5</t>
+  </si>
+  <si>
+    <t>VDpFMWM1ODdkMmUw</t>
+  </si>
+  <si>
+    <t>VDpFZWVjMzcxYzEx</t>
+  </si>
+  <si>
+    <t>VDpFNWM4ZTcyMDI5</t>
+  </si>
+  <si>
+    <t>VDpFY2ZlOWE2ZmJm</t>
+  </si>
+  <si>
+    <t>VDpFNGNiM2E0YWRm</t>
+  </si>
+  <si>
+    <t>VDpFNzBiYWIxODZl</t>
+  </si>
+  <si>
+    <t>VDpFNzhlZTViMGE3</t>
+  </si>
+  <si>
+    <t>VDpFYzYzYjk4NzAw</t>
+  </si>
+  <si>
+    <t>VDpFZDljNTJiYWY0</t>
+  </si>
+  <si>
+    <t>VDpFZmEwYTMyMGM2</t>
+  </si>
+  <si>
+    <t>VDpFYTk0Y2E5NTQ5</t>
+  </si>
+  <si>
+    <t>VDpFZTIwOTNjOTk0</t>
+  </si>
+  <si>
+    <t>VDpFNmE4ZDc1Yzk4</t>
+  </si>
+  <si>
+    <t>VDpFMjM4MWY3Zjg4</t>
+  </si>
+  <si>
+    <t>VDpFODUwMTMwZjZm</t>
+  </si>
+  <si>
+    <t>VDpFOGY2NDM5MGM3</t>
+  </si>
+  <si>
+    <t>VDpFM2U3ZTAxN2E4</t>
+  </si>
+  <si>
+    <t>VDpFZjIyNzFhYmE5</t>
+  </si>
+  <si>
+    <t>VDpFNjFmYTNmMzlk</t>
+  </si>
+  <si>
+    <t>VDpFMTQwNTI4NGVm</t>
+  </si>
+  <si>
+    <t>VDpFZTA0OWE4Yjg0</t>
+  </si>
+  <si>
+    <t>VDpFMWQ5YTdhNjY5</t>
+  </si>
+  <si>
+    <t>VDpFYzI5NzVkZGJi</t>
+  </si>
+  <si>
+    <t>VDpFNzMyOTJiZTFl</t>
+  </si>
+  <si>
+    <t>VDpFNGU2ZmFmYzBi</t>
+  </si>
+  <si>
+    <t>VDpFYWQ1ODRkMmZl</t>
+  </si>
+  <si>
+    <t>VDpFMGUwNzAwM2I0</t>
+  </si>
+  <si>
+    <t>VDpFNTRlOGRjNWMy</t>
+  </si>
+  <si>
+    <t>VDpFODZhZTYyMGZi</t>
+  </si>
+  <si>
+    <t>VDpFNmIwZWIwMGU5</t>
+  </si>
+  <si>
+    <t>VDpFNjdiNWYwNGMz</t>
+  </si>
+  <si>
+    <t>VDpFODRlZDZlYTg4</t>
+  </si>
+  <si>
+    <t>VDpFNzAxMGIyNzA0</t>
+  </si>
+  <si>
+    <t>VDpFZDQxYTk3NzUz</t>
+  </si>
+  <si>
+    <t>VDpFM2EyMTdiMjgy</t>
+  </si>
+  <si>
+    <t>VDpFMzEyMDg4ZDYw</t>
+  </si>
+  <si>
+    <t>VDpFZjk0ZDhjOWFh</t>
+  </si>
+  <si>
+    <t>VDpFMjUxZDFkNDZj</t>
+  </si>
+  <si>
+    <t>VDpFMTQ3NjZiNWIw</t>
+  </si>
+  <si>
+    <t>VDpFNjgzZjQyNDY5</t>
+  </si>
+  <si>
+    <t>VDpFOTc4YzNjYzFj</t>
+  </si>
+  <si>
+    <t>VDpFYWQ1OTE4MGFm</t>
+  </si>
+  <si>
+    <t>VDpFOTg0Njg5YzAy</t>
+  </si>
+  <si>
+    <t>VDpFNWJkNDQ2NThj</t>
+  </si>
+  <si>
+    <t>VDpFZWNmMDg1NmY0</t>
+  </si>
+  <si>
+    <t>VDpFMmU3ZjZlODM1</t>
+  </si>
+  <si>
+    <t>VDpFNWYxYjBmMzA5</t>
+  </si>
+  <si>
+    <t>VDpFMzhiNDM5YWM1</t>
+  </si>
+  <si>
+    <t>VDpFNzY4YWIwN2Vh</t>
+  </si>
+  <si>
+    <t>VDpFOGZiMGQ5YmJh</t>
+  </si>
+  <si>
+    <t>VDpFYWI3MTVlZWYw</t>
+  </si>
+  <si>
+    <t>VDpFOTZiMmU2NjJi</t>
+  </si>
+  <si>
+    <t>VDpFOGM1M2Y0MTNj</t>
+  </si>
+  <si>
+    <t>VDpFOWVhYmU4YzZi</t>
+  </si>
+  <si>
+    <t>VDpFZGMzY2Y1OGE2</t>
+  </si>
+  <si>
+    <t>VDpFYmQzM2ZhNWRj</t>
+  </si>
+  <si>
+    <t>VDpFYTQ3NGU0Nzhi</t>
+  </si>
+  <si>
+    <t>VDpFZjkwMzNiNTUz</t>
+  </si>
+  <si>
+    <t>VDpFZDU4ODg4MDFk</t>
+  </si>
+  <si>
+    <t>VDpFODA1ZTcwNTIy</t>
+  </si>
+  <si>
+    <t>VDpFZTFkY2FhNDNi</t>
+  </si>
+  <si>
+    <t>VDpFMmQ4Njg5NzZl</t>
+  </si>
+  <si>
+    <t>VDpFOTYxNjFmNGE0</t>
+  </si>
+  <si>
+    <t>VDpFNWViY2EyZDVi</t>
+  </si>
+  <si>
+    <t>VDpFMWI4ZGFiNWY5</t>
+  </si>
+  <si>
+    <t>VDpFZGQ1MTI2OTE5</t>
+  </si>
+  <si>
+    <t>VDpFMWE3N2JkZjRk</t>
+  </si>
+  <si>
+    <t>VDpFYTk1OWRhZGY2</t>
+  </si>
+  <si>
+    <t>VDpFMzdhMGFhZDBh</t>
+  </si>
+  <si>
+    <t>VDpFODhkZTViZmZk</t>
+  </si>
+  <si>
+    <t>VDpFNmQ2N2RiNDM2</t>
+  </si>
+  <si>
+    <t>UzpBQktaNjA3NjY4TlZJUVRMNjQ6NDI=</t>
+  </si>
+  <si>
+    <t>UzpDSUJZNDU3MTk4WVRXS1JVNjU6NDc=</t>
+  </si>
+  <si>
+    <t>UzpESUhPMjE1MjA2TVhMSVRINDY6NDg=</t>
+  </si>
+  <si>
+    <t>UzpETkVZMTQ1OTg5TUJQU1lBOTg6NDk=</t>
+  </si>
+  <si>
+    <t>UzpET1JENjI0NjEwUVpaRVZOOTk6NTA=</t>
+  </si>
+  <si>
+    <t>UzpEUFVUNTYyMTIzSVpGVVdGODI6NTE=</t>
+  </si>
+  <si>
+    <t>UzpFQ0hIMjQ0OTI4UFpTV0tWMzk6NTI=</t>
+  </si>
+  <si>
+    <t>UzpFRVFLNjUxODQ4RUpPTFFIMjA6NTM=</t>
+  </si>
+  <si>
+    <t>UzpFSkxUNTg0MjM0SklXVU5aNjY6NTQ=</t>
+  </si>
+  <si>
+    <t>UzpFVFVROTkwMjY1TE5OV1BZNzI6NTU=</t>
+  </si>
+  <si>
+    <t>UzpFVkRJNjAwNjIxTUxOUVNFNTg6NTY=</t>
+  </si>
+  <si>
+    <t>UzpHTEJRMzQ3NzYySlhWSVRIODc6NTk=</t>
+  </si>
+  <si>
+    <t>UzpKSlZFMTM2Mjc0T0xQTUVMMjQ6NjE=</t>
+  </si>
+  <si>
+    <t>UzpKTktFOTY4NTI4T0VNWllNMzg6NjI=</t>
+  </si>
+  <si>
+    <t>UzpKTk5RODI2MTY5QlVOWEtMNjE6NjM=</t>
+  </si>
+  <si>
+    <t>UzpLSVBBMDcxMTE4SkRDWEVJMTI6NjY=</t>
+  </si>
+  <si>
+    <t>UzpLTkdQMTg5NDkxQkhUWkxBMzA6Njc=</t>
+  </si>
+  <si>
+    <t>UzpNRU9aNjc4NTk3VkNRU1ZFNTI6Njk=</t>
+  </si>
+  <si>
+    <t>UzpNUU9IODExODA5UUlDRkpYMTI6NzE=</t>
+  </si>
+  <si>
+    <t>UzpNWFJHMTA5NjUxU0dSQ1ZSMDI6NzI=</t>
+  </si>
+  <si>
+    <t>UzpOQUxOMDM0MjkyTEpFTlJENTA6NzM=</t>
+  </si>
+  <si>
+    <t>UzpORkxaOTg2MTIwV0xVQVdaODU6NzQ=</t>
+  </si>
+  <si>
+    <t>UzpPSEdHMTY4NTQ1VUZLWldLMjU6NzU=</t>
+  </si>
+  <si>
+    <t>UzpQRkdJMjc0ODExUlBDUUNNNjA6NzY=</t>
+  </si>
+  <si>
+    <t>UzpRQlpDMjYwMTAzQUtLR0xRMzM6Nzg=</t>
+  </si>
+  <si>
+    <t>UzpRRVNVMzgwNjU0RU5QTkZDNDk6Nzk=</t>
+  </si>
+  <si>
+    <t>UzpRVUVTMzAzOTczS05GQ1JYMTg6ODA=</t>
+  </si>
+  <si>
+    <t>UzpRWExHMTc3OTcyTFhLR1hYOTM6ODE=</t>
+  </si>
+  <si>
+    <t>UzpSRENZNjUwMDAxV0lQRURNNjY6ODI=</t>
+  </si>
+  <si>
+    <t>UzpSTkVCMzg3OTExSkVBRUVNODQ6ODM=</t>
+  </si>
+  <si>
+    <t>UzpSVUxGNDM1NDAzWU9IT1pGMDk6ODU=</t>
+  </si>
+  <si>
+    <t>UzpTTUhRNzkxNjY2RVBGR1ZZNTA6ODc=</t>
+  </si>
+  <si>
+    <t>UzpUUVJGNTIyMzQxUkdCUFdFOTA6ODk=</t>
+  </si>
+  <si>
+    <t>UzpUV1pSMDI5NzU5TE5KUkhEMDA6OTA=</t>
+  </si>
+  <si>
+    <t>UzpWTU9VNzQxODY5SERXSFZQODA6OTE=</t>
+  </si>
+  <si>
+    <t>UzpWV0VBNjY2MjYzT0hUV01BNTk6OTI=</t>
+  </si>
+  <si>
+    <t>UzpXSFFNOTE1MzY2RE9aQVZZMjY6OTQ=</t>
+  </si>
+  <si>
+    <t>UzpXSkxGNDU3NTE2SlBCSVJLMDQ6OTU=</t>
+  </si>
+  <si>
+    <t>UzpYQkNRNDIxNTM2SkVJTlVBMTk6OTg=</t>
+  </si>
+  <si>
+    <t>UzpZS05aMjU0MTk5WVBNVENGNDY6OTk=</t>
+  </si>
+  <si>
+    <t>UzpaR0hBOTk3NzI1SU9VQ1dZMjU6MTAx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.8000000000000007"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -959,9 +1621,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1242,11 +1905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A2:E37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,6 +1916,23 @@
     <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" t="s">
+        <v>303</v>
+      </c>
+    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>42</v>
@@ -1271,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>42</v>
       </c>
@@ -1305,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>47</v>
       </c>
@@ -1322,7 +2001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>49</v>
       </c>
@@ -1339,7 +2018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
@@ -1356,7 +2035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50</v>
       </c>
@@ -1373,7 +2052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>51</v>
       </c>
@@ -1407,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>53</v>
       </c>
@@ -1424,7 +2103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>53</v>
       </c>
@@ -1475,7 +2154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>55</v>
       </c>
@@ -1492,7 +2171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>55</v>
       </c>
@@ -1509,7 +2188,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>56</v>
       </c>
@@ -1526,7 +2205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>56</v>
       </c>
@@ -1543,7 +2222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>56</v>
       </c>
@@ -1560,7 +2239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>59</v>
       </c>
@@ -1577,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>59</v>
       </c>
@@ -1594,7 +2273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>61</v>
       </c>
@@ -1611,7 +2290,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>61</v>
       </c>
@@ -1628,7 +2307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>62</v>
       </c>
@@ -1645,7 +2324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>62</v>
       </c>
@@ -1662,7 +2341,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>63</v>
       </c>
@@ -1679,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>66</v>
       </c>
@@ -1696,7 +2375,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>67</v>
       </c>
@@ -1713,7 +2392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>69</v>
       </c>
@@ -1730,7 +2409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>72</v>
       </c>
@@ -1747,7 +2426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>72</v>
       </c>
@@ -1764,7 +2443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>76</v>
       </c>
@@ -1781,7 +2460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>79</v>
       </c>
@@ -1798,7 +2477,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>80</v>
       </c>
@@ -1815,7 +2494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>81</v>
       </c>
@@ -1832,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>81</v>
       </c>
@@ -1849,7 +2528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>83</v>
       </c>
@@ -1867,24 +2546,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E37">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="1A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E37"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A2:E137"/>
+  <dimension ref="A2:E138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E137"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,21 +2564,21 @@
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>304</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+        <v>306</v>
+      </c>
+      <c r="D2" t="s">
+        <v>307</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1920,13 +2592,13 @@
         <v>48</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1937,13 +2609,13 @@
         <v>48</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1954,30 +2626,30 @@
         <v>48</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1988,13 +2660,13 @@
         <v>49</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2005,30 +2677,30 @@
         <v>49</v>
       </c>
       <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>292</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -2039,13 +2711,13 @@
         <v>50</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2056,30 +2728,30 @@
         <v>50</v>
       </c>
       <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2090,13 +2762,13 @@
         <v>52</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2107,30 +2779,30 @@
         <v>52</v>
       </c>
       <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15">
         <v>13</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>293</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -2141,30 +2813,30 @@
         <v>53</v>
       </c>
       <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
         <v>11</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -2175,13 +2847,13 @@
         <v>55</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2192,30 +2864,30 @@
         <v>55</v>
       </c>
       <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20">
         <v>13</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>294</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -2226,13 +2898,13 @@
         <v>56</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7</v>
       </c>
@@ -2243,13 +2915,13 @@
         <v>56</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7</v>
       </c>
@@ -2260,47 +2932,47 @@
         <v>56</v>
       </c>
       <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24">
         <v>14</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>8</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>58</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>8</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -2311,47 +2983,47 @@
         <v>60</v>
       </c>
       <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>9</v>
       </c>
-      <c r="E26" t="s">
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>10</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>295</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>61</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>11</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>11</v>
-      </c>
-      <c r="B28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11</v>
       </c>
@@ -2362,30 +3034,30 @@
         <v>63</v>
       </c>
       <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30">
         <v>12</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>12</v>
       </c>
@@ -2396,64 +3068,64 @@
         <v>65</v>
       </c>
       <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32">
         <v>13</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>13</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>66</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>67</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>14</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>14</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>68</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>69</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>10</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>17</v>
-      </c>
-      <c r="B34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>17</v>
       </c>
@@ -2464,30 +3136,30 @@
         <v>71</v>
       </c>
       <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36">
         <v>3</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>18</v>
-      </c>
-      <c r="B36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>18</v>
       </c>
@@ -2498,13 +3170,13 @@
         <v>73</v>
       </c>
       <c r="D37">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>18</v>
       </c>
@@ -2515,123 +3187,123 @@
         <v>73</v>
       </c>
       <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39">
         <v>13</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>19</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>74</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>75</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>7</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>20</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>76</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>77</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>11</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>21</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>296</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>78</v>
       </c>
-      <c r="D41">
+      <c r="D42">
         <v>14</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>22</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>79</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" t="s">
         <v>80</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>6</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>23</v>
-      </c>
-      <c r="B43" t="s">
-        <v>297</v>
-      </c>
-      <c r="C43" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43">
-        <v>7</v>
-      </c>
-      <c r="E43" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>297</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -2640,41 +3312,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>28</v>
       </c>
@@ -2685,30 +3357,30 @@
         <v>89</v>
       </c>
       <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>28</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49">
         <v>6</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>29</v>
-      </c>
-      <c r="B49" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>29</v>
       </c>
@@ -2719,47 +3391,47 @@
         <v>91</v>
       </c>
       <c r="D50">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>29</v>
+      </c>
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51">
         <v>12</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>30</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>92</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>93</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>11</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>31</v>
-      </c>
-      <c r="B52" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" t="s">
-        <v>95</v>
-      </c>
-      <c r="D52">
-        <v>13</v>
-      </c>
-      <c r="E52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>31</v>
       </c>
@@ -2770,64 +3442,64 @@
         <v>95</v>
       </c>
       <c r="D53">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>31</v>
+      </c>
+      <c r="B54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54">
         <v>14</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>32</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>96</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>97</v>
       </c>
-      <c r="D54">
+      <c r="D55">
         <v>10</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>33</v>
-      </c>
-      <c r="B55" t="s">
-        <v>98</v>
-      </c>
-      <c r="C55" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55">
-        <v>9</v>
-      </c>
-      <c r="E55" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D56">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>34</v>
       </c>
@@ -2838,64 +3510,64 @@
         <v>101</v>
       </c>
       <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>34</v>
+      </c>
+      <c r="B58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58">
         <v>6</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>35</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>102</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>103</v>
       </c>
-      <c r="D58">
+      <c r="D59">
         <v>5</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>36</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>104</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" t="s">
         <v>105</v>
       </c>
-      <c r="D59">
+      <c r="D60">
         <v>8</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E60" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>37</v>
-      </c>
-      <c r="B60" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60" t="s">
-        <v>107</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>37</v>
       </c>
@@ -2906,115 +3578,115 @@
         <v>107</v>
       </c>
       <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>37</v>
+      </c>
+      <c r="B62" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62">
         <v>12</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E62" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>38</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>108</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>109</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <v>10</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E63" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>39</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>110</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>111</v>
       </c>
-      <c r="D63">
+      <c r="D64">
         <v>1</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E64" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>40</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>112</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C65" t="s">
         <v>113</v>
       </c>
-      <c r="D64">
+      <c r="D65">
         <v>11</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>44</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>114</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>115</v>
       </c>
-      <c r="D65">
+      <c r="D66">
         <v>13</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>45</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>116</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C67" t="s">
         <v>117</v>
       </c>
-      <c r="D66">
+      <c r="D67">
         <v>5</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E67" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>46</v>
-      </c>
-      <c r="B67" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" t="s">
-        <v>119</v>
-      </c>
-      <c r="D67">
-        <v>8</v>
-      </c>
-      <c r="E67" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>46</v>
       </c>
@@ -3025,44 +3697,44 @@
         <v>119</v>
       </c>
       <c r="D68">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>46</v>
+      </c>
+      <c r="B69" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69">
         <v>10</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E69" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>48</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>120</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>121</v>
       </c>
-      <c r="D69">
+      <c r="D70">
         <v>4</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E70" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>51</v>
-      </c>
-      <c r="B70" t="s">
-        <v>122</v>
-      </c>
-      <c r="C70" t="s">
-        <v>123</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3076,13 +3748,13 @@
         <v>123</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>51</v>
       </c>
@@ -3093,13 +3765,13 @@
         <v>123</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>51</v>
       </c>
@@ -3110,30 +3782,30 @@
         <v>123</v>
       </c>
       <c r="D73">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C74" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>52</v>
       </c>
@@ -3144,13 +3816,13 @@
         <v>125</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>52</v>
       </c>
@@ -3161,30 +3833,30 @@
         <v>125</v>
       </c>
       <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>52</v>
+      </c>
+      <c r="B77" t="s">
+        <v>124</v>
+      </c>
+      <c r="C77" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77">
         <v>6</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E77" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>53</v>
-      </c>
-      <c r="B77" t="s">
-        <v>126</v>
-      </c>
-      <c r="C77" t="s">
-        <v>127</v>
-      </c>
-      <c r="D77">
-        <v>3</v>
-      </c>
-      <c r="E77" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>53</v>
       </c>
@@ -3195,13 +3867,13 @@
         <v>127</v>
       </c>
       <c r="D78">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>53</v>
       </c>
@@ -3212,30 +3884,30 @@
         <v>127</v>
       </c>
       <c r="D79">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>53</v>
+      </c>
+      <c r="B80" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" t="s">
+        <v>127</v>
+      </c>
+      <c r="D80">
         <v>9</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>54</v>
-      </c>
-      <c r="B80" t="s">
-        <v>128</v>
-      </c>
-      <c r="C80" t="s">
-        <v>129</v>
-      </c>
-      <c r="D80">
-        <v>4</v>
-      </c>
-      <c r="E80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>54</v>
       </c>
@@ -3246,13 +3918,13 @@
         <v>129</v>
       </c>
       <c r="D81">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>54</v>
       </c>
@@ -3263,30 +3935,30 @@
         <v>129</v>
       </c>
       <c r="D82">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>54</v>
+      </c>
+      <c r="B83" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" t="s">
+        <v>129</v>
+      </c>
+      <c r="D83">
         <v>13</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>55</v>
-      </c>
-      <c r="B83" t="s">
-        <v>130</v>
-      </c>
-      <c r="C83" t="s">
-        <v>131</v>
-      </c>
-      <c r="D83">
-        <v>5</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>55</v>
       </c>
@@ -3297,30 +3969,30 @@
         <v>131</v>
       </c>
       <c r="D84">
+        <v>5</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>55</v>
+      </c>
+      <c r="B85" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" t="s">
+        <v>131</v>
+      </c>
+      <c r="D85">
         <v>11</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>56</v>
-      </c>
-      <c r="B85" t="s">
-        <v>132</v>
-      </c>
-      <c r="C85" t="s">
-        <v>133</v>
-      </c>
-      <c r="D85">
-        <v>4</v>
-      </c>
-      <c r="E85" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>56</v>
       </c>
@@ -3331,13 +4003,13 @@
         <v>133</v>
       </c>
       <c r="D86">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>56</v>
       </c>
@@ -3348,30 +4020,30 @@
         <v>133</v>
       </c>
       <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>56</v>
+      </c>
+      <c r="B88" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" t="s">
+        <v>133</v>
+      </c>
+      <c r="D88">
         <v>13</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E88" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>57</v>
-      </c>
-      <c r="B88" t="s">
-        <v>134</v>
-      </c>
-      <c r="C88" t="s">
-        <v>135</v>
-      </c>
-      <c r="D88">
-        <v>7</v>
-      </c>
-      <c r="E88" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>57</v>
       </c>
@@ -3382,13 +4054,13 @@
         <v>135</v>
       </c>
       <c r="D89">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>57</v>
       </c>
@@ -3399,13 +4071,13 @@
         <v>135</v>
       </c>
       <c r="D90">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>57</v>
       </c>
@@ -3416,47 +4088,47 @@
         <v>135</v>
       </c>
       <c r="D91">
+        <v>12</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>57</v>
+      </c>
+      <c r="B92" t="s">
+        <v>134</v>
+      </c>
+      <c r="C92" t="s">
+        <v>135</v>
+      </c>
+      <c r="D92">
         <v>14</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E92" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
         <v>58</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>136</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>137</v>
       </c>
-      <c r="D92">
+      <c r="D93">
         <v>8</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E93" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>59</v>
-      </c>
-      <c r="B93" t="s">
-        <v>138</v>
-      </c>
-      <c r="C93" t="s">
-        <v>139</v>
-      </c>
-      <c r="D93">
-        <v>7</v>
-      </c>
-      <c r="E93" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>59</v>
       </c>
@@ -3467,47 +4139,47 @@
         <v>139</v>
       </c>
       <c r="D94">
+        <v>7</v>
+      </c>
+      <c r="E94" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>59</v>
+      </c>
+      <c r="B95" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95">
         <v>9</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E95" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
         <v>60</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>140</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>141</v>
       </c>
-      <c r="D95">
+      <c r="D96">
         <v>11</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E96" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>61</v>
-      </c>
-      <c r="B96" t="s">
-        <v>142</v>
-      </c>
-      <c r="C96" t="s">
-        <v>143</v>
-      </c>
-      <c r="D96">
-        <v>3</v>
-      </c>
-      <c r="E96" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>61</v>
       </c>
@@ -3518,30 +4190,30 @@
         <v>143</v>
       </c>
       <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>61</v>
+      </c>
+      <c r="B98" t="s">
+        <v>142</v>
+      </c>
+      <c r="C98" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98">
         <v>12</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E98" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>62</v>
-      </c>
-      <c r="B98" t="s">
-        <v>144</v>
-      </c>
-      <c r="C98" t="s">
-        <v>145</v>
-      </c>
-      <c r="D98">
-        <v>8</v>
-      </c>
-      <c r="E98" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>62</v>
       </c>
@@ -3552,64 +4224,64 @@
         <v>145</v>
       </c>
       <c r="D99">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>62</v>
+      </c>
+      <c r="B100" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" t="s">
+        <v>145</v>
+      </c>
+      <c r="D100">
         <v>13</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E100" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>63</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>146</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>147</v>
       </c>
-      <c r="D100">
+      <c r="D101">
         <v>14</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E101" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
         <v>64</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>148</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>149</v>
       </c>
-      <c r="D101">
+      <c r="D102">
         <v>10</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E102" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>67</v>
-      </c>
-      <c r="B102" t="s">
-        <v>150</v>
-      </c>
-      <c r="C102" t="s">
-        <v>151</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>67</v>
       </c>
@@ -3620,30 +4292,30 @@
         <v>151</v>
       </c>
       <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>67</v>
+      </c>
+      <c r="B104" t="s">
+        <v>150</v>
+      </c>
+      <c r="C104" t="s">
+        <v>151</v>
+      </c>
+      <c r="D104">
         <v>3</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E104" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>68</v>
-      </c>
-      <c r="B104" t="s">
-        <v>152</v>
-      </c>
-      <c r="C104" t="s">
-        <v>153</v>
-      </c>
-      <c r="D104">
-        <v>4</v>
-      </c>
-      <c r="E104" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>68</v>
       </c>
@@ -3654,13 +4326,13 @@
         <v>153</v>
       </c>
       <c r="D105">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>68</v>
       </c>
@@ -3671,123 +4343,123 @@
         <v>153</v>
       </c>
       <c r="D106">
+        <v>10</v>
+      </c>
+      <c r="E106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>68</v>
+      </c>
+      <c r="B107" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107" t="s">
+        <v>153</v>
+      </c>
+      <c r="D107">
         <v>13</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E107" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
         <v>69</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>154</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C108" t="s">
         <v>155</v>
       </c>
-      <c r="D107">
+      <c r="D108">
         <v>7</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E108" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
         <v>70</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>156</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>157</v>
       </c>
-      <c r="D108">
+      <c r="D109">
         <v>11</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E109" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
         <v>71</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>158</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
         <v>159</v>
       </c>
-      <c r="D109">
+      <c r="D110">
         <v>14</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E110" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
         <v>72</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>160</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C111" t="s">
         <v>161</v>
       </c>
-      <c r="D110">
+      <c r="D111">
         <v>6</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E111" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>73</v>
-      </c>
-      <c r="B111" t="s">
-        <v>162</v>
-      </c>
-      <c r="C111" t="s">
-        <v>163</v>
-      </c>
-      <c r="D111">
-        <v>7</v>
-      </c>
-      <c r="E111" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B112" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C112" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D112">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E112" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B113" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C113" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -3796,41 +4468,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B114" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C114" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D114">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E114" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B115" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C115" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>78</v>
       </c>
@@ -3841,30 +4513,30 @@
         <v>171</v>
       </c>
       <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>78</v>
+      </c>
+      <c r="B117" t="s">
+        <v>170</v>
+      </c>
+      <c r="C117" t="s">
+        <v>171</v>
+      </c>
+      <c r="D117">
         <v>6</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E117" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>79</v>
-      </c>
-      <c r="B117" t="s">
-        <v>172</v>
-      </c>
-      <c r="C117" t="s">
-        <v>173</v>
-      </c>
-      <c r="D117">
-        <v>8</v>
-      </c>
-      <c r="E117" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>79</v>
       </c>
@@ -3875,47 +4547,47 @@
         <v>173</v>
       </c>
       <c r="D118">
+        <v>8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>79</v>
+      </c>
+      <c r="B119" t="s">
+        <v>172</v>
+      </c>
+      <c r="C119" t="s">
+        <v>173</v>
+      </c>
+      <c r="D119">
         <v>12</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E119" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
         <v>80</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>174</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
         <v>175</v>
       </c>
-      <c r="D119">
+      <c r="D120">
         <v>11</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E120" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>81</v>
-      </c>
-      <c r="B120" t="s">
-        <v>176</v>
-      </c>
-      <c r="C120" t="s">
-        <v>177</v>
-      </c>
-      <c r="D120">
-        <v>13</v>
-      </c>
-      <c r="E120" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>81</v>
       </c>
@@ -3926,64 +4598,64 @@
         <v>177</v>
       </c>
       <c r="D121">
+        <v>13</v>
+      </c>
+      <c r="E121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>81</v>
+      </c>
+      <c r="B122" t="s">
+        <v>176</v>
+      </c>
+      <c r="C122" t="s">
+        <v>177</v>
+      </c>
+      <c r="D122">
         <v>14</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E122" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
         <v>82</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>178</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C123" t="s">
         <v>179</v>
       </c>
-      <c r="D122">
+      <c r="D123">
         <v>10</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E123" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>83</v>
-      </c>
-      <c r="B123" t="s">
-        <v>180</v>
-      </c>
-      <c r="C123" t="s">
-        <v>181</v>
-      </c>
-      <c r="D123">
-        <v>9</v>
-      </c>
-      <c r="E123" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B124" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C124" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E124" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>84</v>
       </c>
@@ -3994,64 +4666,64 @@
         <v>183</v>
       </c>
       <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>84</v>
+      </c>
+      <c r="B126" t="s">
+        <v>182</v>
+      </c>
+      <c r="C126" t="s">
+        <v>183</v>
+      </c>
+      <c r="D126">
         <v>6</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E126" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
         <v>85</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>184</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>185</v>
       </c>
-      <c r="D126">
+      <c r="D127">
         <v>5</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E127" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
         <v>86</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>186</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>187</v>
       </c>
-      <c r="D127">
+      <c r="D128">
         <v>8</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E128" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>87</v>
-      </c>
-      <c r="B128" t="s">
-        <v>188</v>
-      </c>
-      <c r="C128" t="s">
-        <v>189</v>
-      </c>
-      <c r="D128">
-        <v>1</v>
-      </c>
-      <c r="E128" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>87</v>
       </c>
@@ -4062,115 +4734,115 @@
         <v>189</v>
       </c>
       <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>87</v>
+      </c>
+      <c r="B130" t="s">
+        <v>188</v>
+      </c>
+      <c r="C130" t="s">
+        <v>189</v>
+      </c>
+      <c r="D130">
         <v>12</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E130" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>88</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>190</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C131" t="s">
         <v>191</v>
       </c>
-      <c r="D130">
+      <c r="D131">
         <v>10</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E131" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
         <v>89</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>192</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C132" t="s">
         <v>193</v>
       </c>
-      <c r="D131">
+      <c r="D132">
         <v>1</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E132" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
         <v>90</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>194</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" t="s">
         <v>195</v>
       </c>
-      <c r="D132">
+      <c r="D133">
         <v>11</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E133" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
         <v>94</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>196</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C134" t="s">
         <v>197</v>
       </c>
-      <c r="D133">
+      <c r="D134">
         <v>13</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E134" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
         <v>95</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>198</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
         <v>199</v>
       </c>
-      <c r="D134">
+      <c r="D135">
         <v>5</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E135" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>96</v>
-      </c>
-      <c r="B135" t="s">
-        <v>200</v>
-      </c>
-      <c r="C135" t="s">
-        <v>201</v>
-      </c>
-      <c r="D135">
-        <v>8</v>
-      </c>
-      <c r="E135" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>96</v>
       </c>
@@ -4181,73 +4853,87 @@
         <v>201</v>
       </c>
       <c r="D136">
+        <v>8</v>
+      </c>
+      <c r="E136" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>96</v>
+      </c>
+      <c r="B137" t="s">
+        <v>200</v>
+      </c>
+      <c r="C137" t="s">
+        <v>201</v>
+      </c>
+      <c r="D137">
         <v>10</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E137" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
         <v>98</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>202</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C138" t="s">
         <v>203</v>
       </c>
-      <c r="D137">
+      <c r="D138">
         <v>4</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E138" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E137">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="1C"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E138"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>2</v>
+      <c r="A1" t="s">
+        <v>308</v>
       </c>
       <c r="B1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
+        <v>309</v>
+      </c>
+      <c r="C1" t="s">
+        <v>310</v>
       </c>
       <c r="D1" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" t="str">
-        <f>CONCATENATE("UPDATE Students SET Token='", E1, "' WHERE StudentId = ",C1)</f>
-        <v>UPDATE Students SET Token='Ed57176ae9' WHERE StudentId = 1</v>
+        <v>306</v>
+      </c>
+      <c r="F1" t="s">
+        <v>375</v>
+      </c>
+      <c r="G1" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -4258,38 +4944,44 @@
         <v>204</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>376</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G65" si="0">CONCATENATE("UPDATE Students SET Token='", E2, "' WHERE StudentId = ",C2)</f>
-        <v>UPDATE Students SET Token='E43b69134f' WHERE StudentId = 2</v>
+        <f>CONCATENATE("UPDATE Students SET Token='", E2, "' WHERE StudentId = ",C2)</f>
+        <v>UPDATE Students SET Token='Ed57176ae9' WHERE StudentId = 1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E4876d5a46' WHERE StudentId = 3</v>
+        <f t="shared" ref="G3:G66" si="0">CONCATENATE("UPDATE Students SET Token='", E3, "' WHERE StudentId = ",C3)</f>
+        <v>UPDATE Students SET Token='E43b69134f' WHERE StudentId = 2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -4300,38 +4992,44 @@
         <v>205</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>292</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>377</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E844224d05' WHERE StudentId = 4</v>
+        <v>UPDATE Students SET Token='E4876d5a46' WHERE StudentId = 3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
       <c r="D5" t="s">
-        <v>293</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>378</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E28ee69bfd' WHERE StudentId = 5</v>
+        <v>UPDATE Students SET Token='E844224d05' WHERE StudentId = 4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -4342,17 +5040,20 @@
         <v>206</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>293</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>379</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E6064aa0cc' WHERE StudentId = 6</v>
+        <v>UPDATE Students SET Token='E28ee69bfd' WHERE StudentId = 5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -4363,39 +5064,44 @@
         <v>206</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>294</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>380</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='Ed9a1fce33' WHERE StudentId = 7</v>
+        <v>UPDATE Students SET Token='E6064aa0cc' WHERE StudentId = 6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>381</v>
+      </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E6f71a1638' WHERE StudentId = 8</v>
+        <v>UPDATE Students SET Token='Ed9a1fce33' WHERE StudentId = 7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -4406,38 +5112,44 @@
         <v>207</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='Edb105bc47' WHERE StudentId = 9</v>
+        <v>UPDATE Students SET Token='E6f71a1638' WHERE StudentId = 8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>295</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>383</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='Ed800b99a5' WHERE StudentId = 10</v>
+        <v>UPDATE Students SET Token='Edb105bc47' WHERE StudentId = 9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -4448,17 +5160,20 @@
         <v>208</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>295</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>384</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E3e5f97e1e' WHERE StudentId = 11</v>
+        <v>UPDATE Students SET Token='Ed800b99a5' WHERE StudentId = 10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4469,38 +5184,44 @@
         <v>208</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>385</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='Edc1bf3078' WHERE StudentId = 12</v>
+        <v>UPDATE Students SET Token='E3e5f97e1e' WHERE StudentId = 11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>386</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E4a1b5d7ca' WHERE StudentId = 13</v>
+        <v>UPDATE Students SET Token='Edc1bf3078' WHERE StudentId = 12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -4511,17 +5232,20 @@
         <v>209</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>387</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E96806d39c' WHERE StudentId = 14</v>
+        <v>UPDATE Students SET Token='E4a1b5d7ca' WHERE StudentId = 13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4532,38 +5256,44 @@
         <v>209</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>210</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>211</v>
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>388</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E743931085' WHERE StudentId = 15</v>
+        <v>UPDATE Students SET Token='E96806d39c' WHERE StudentId = 14</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E16" t="s">
-        <v>214</v>
+        <v>211</v>
+      </c>
+      <c r="F16" t="s">
+        <v>389</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E0795dabd6' WHERE StudentId = 16</v>
+        <v>UPDATE Students SET Token='E743931085' WHERE StudentId = 15</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4574,38 +5304,44 @@
         <v>212</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>214</v>
+      </c>
+      <c r="F17" t="s">
+        <v>390</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E38a13e6c5' WHERE StudentId = 17</v>
+        <v>UPDATE Students SET Token='E0795dabd6' WHERE StudentId = 16</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>391</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='Ed1f65fdc4' WHERE StudentId = 18</v>
+        <v>UPDATE Students SET Token='E38a13e6c5' WHERE StudentId = 17</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -4616,17 +5352,20 @@
         <v>215</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
+        <v>392</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E52a68295a' WHERE StudentId = 19</v>
+        <v>UPDATE Students SET Token='Ed1f65fdc4' WHERE StudentId = 18</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4637,38 +5376,44 @@
         <v>215</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>393</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='Ea46e6aee0' WHERE StudentId = 20</v>
+        <v>UPDATE Students SET Token='E52a68295a' WHERE StudentId = 19</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>296</v>
+        <v>76</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="F21" t="s">
+        <v>394</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='Efd9a45fbf' WHERE StudentId = 21</v>
+        <v>UPDATE Students SET Token='Ea46e6aee0' WHERE StudentId = 20</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -4679,38 +5424,44 @@
         <v>216</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="F22" t="s">
+        <v>395</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E10d8f2937' WHERE StudentId = 22</v>
+        <v>UPDATE Students SET Token='Efd9a45fbf' WHERE StudentId = 21</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="F23" t="s">
+        <v>396</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='Ec7da581a2' WHERE StudentId = 23</v>
+        <v>UPDATE Students SET Token='E10d8f2937' WHERE StudentId = 22</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -4721,17 +5472,20 @@
         <v>217</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>297</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="F24" t="s">
+        <v>397</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E220b38eee' WHERE StudentId = 24</v>
+        <v>UPDATE Students SET Token='Ec7da581a2' WHERE StudentId = 23</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -4742,38 +5496,44 @@
         <v>217</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="E25" t="s">
-        <v>219</v>
+        <v>83</v>
+      </c>
+      <c r="F25" t="s">
+        <v>398</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E4f401d2e7' WHERE StudentId = 25</v>
+        <v>UPDATE Students SET Token='E220b38eee' WHERE StudentId = 24</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>218</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>219</v>
+      </c>
+      <c r="F26" t="s">
+        <v>399</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E59cb42bbb' WHERE StudentId = 26</v>
+        <v>UPDATE Students SET Token='E4f401d2e7' WHERE StudentId = 25</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4784,38 +5544,44 @@
         <v>220</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+      <c r="F27" t="s">
+        <v>400</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E32efd6588' WHERE StudentId = 27</v>
+        <v>UPDATE Students SET Token='E59cb42bbb' WHERE StudentId = 26</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="F28" t="s">
+        <v>401</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E42c311172' WHERE StudentId = 28</v>
+        <v>UPDATE Students SET Token='E32efd6588' WHERE StudentId = 27</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -4826,17 +5592,20 @@
         <v>221</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="F29" t="s">
+        <v>402</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E5b89b0b59' WHERE StudentId = 29</v>
+        <v>UPDATE Students SET Token='E42c311172' WHERE StudentId = 28</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -4847,38 +5616,44 @@
         <v>221</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="F30" t="s">
+        <v>403</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E1c587d2e0' WHERE StudentId = 30</v>
+        <v>UPDATE Students SET Token='E5b89b0b59' WHERE StudentId = 29</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="F31" t="s">
+        <v>404</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='Eeec371c11' WHERE StudentId = 31</v>
+        <v>UPDATE Students SET Token='E1c587d2e0' WHERE StudentId = 30</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -4889,17 +5664,20 @@
         <v>222</v>
       </c>
       <c r="C32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="F32" t="s">
+        <v>405</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E5c8e72029' WHERE StudentId = 32</v>
+        <v>UPDATE Students SET Token='Eeec371c11' WHERE StudentId = 31</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -4910,38 +5688,44 @@
         <v>222</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>97</v>
+      </c>
+      <c r="F33" t="s">
+        <v>406</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='Ecfe9a6fbf' WHERE StudentId = 33</v>
+        <v>UPDATE Students SET Token='E5c8e72029' WHERE StudentId = 32</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="F34" t="s">
+        <v>407</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E4cb3a4adf' WHERE StudentId = 34</v>
+        <v>UPDATE Students SET Token='Ecfe9a6fbf' WHERE StudentId = 33</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4952,38 +5736,44 @@
         <v>223</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="F35" t="s">
+        <v>408</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E70bab186e' WHERE StudentId = 35</v>
+        <v>UPDATE Students SET Token='E4cb3a4adf' WHERE StudentId = 34</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+      <c r="F36" t="s">
+        <v>409</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E78ee5b0a7' WHERE StudentId = 36</v>
+        <v>UPDATE Students SET Token='E70bab186e' WHERE StudentId = 35</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -4994,17 +5784,20 @@
         <v>224</v>
       </c>
       <c r="C37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="F37" t="s">
+        <v>410</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='Ec63b98700' WHERE StudentId = 37</v>
+        <v>UPDATE Students SET Token='E78ee5b0a7' WHERE StudentId = 36</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -5015,38 +5808,44 @@
         <v>224</v>
       </c>
       <c r="C38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="F38" t="s">
+        <v>411</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='Ed9c52baf4' WHERE StudentId = 38</v>
+        <v>UPDATE Students SET Token='Ec63b98700' WHERE StudentId = 37</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="F39" t="s">
+        <v>412</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='Efa0a320c6' WHERE StudentId = 39</v>
+        <v>UPDATE Students SET Token='Ed9c52baf4' WHERE StudentId = 38</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -5057,17 +5856,20 @@
         <v>225</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="F40" t="s">
+        <v>413</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='Ea94ca9549' WHERE StudentId = 40</v>
+        <v>UPDATE Students SET Token='Efa0a320c6' WHERE StudentId = 39</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -5078,38 +5880,44 @@
         <v>225</v>
       </c>
       <c r="C41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
-        <v>227</v>
+        <v>113</v>
+      </c>
+      <c r="F41" t="s">
+        <v>414</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='Ee2093c994' WHERE StudentId = 41</v>
+        <v>UPDATE Students SET Token='Ea94ca9549' WHERE StudentId = 40</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E42" t="s">
-        <v>230</v>
+        <v>227</v>
+      </c>
+      <c r="F42" t="s">
+        <v>415</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E6a8d75c98' WHERE StudentId = 42</v>
+        <v>UPDATE Students SET Token='Ee2093c994' WHERE StudentId = 41</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -5120,17 +5928,20 @@
         <v>228</v>
       </c>
       <c r="C43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E43" t="s">
-        <v>232</v>
+        <v>230</v>
+      </c>
+      <c r="F43" t="s">
+        <v>416</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E2381f7f88' WHERE StudentId = 43</v>
+        <v>UPDATE Students SET Token='E6a8d75c98' WHERE StudentId = 42</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -5141,38 +5952,44 @@
         <v>228</v>
       </c>
       <c r="C44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>231</v>
       </c>
       <c r="E44" t="s">
-        <v>115</v>
+        <v>232</v>
+      </c>
+      <c r="F44" t="s">
+        <v>417</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E850130f6f' WHERE StudentId = 44</v>
+        <v>UPDATE Students SET Token='E2381f7f88' WHERE StudentId = 43</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="F45" t="s">
+        <v>418</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E8f64390c7' WHERE StudentId = 45</v>
+        <v>UPDATE Students SET Token='E850130f6f' WHERE StudentId = 44</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -5183,38 +6000,44 @@
         <v>233</v>
       </c>
       <c r="C46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="F46" t="s">
+        <v>419</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E3e7e017a8' WHERE StudentId = 46</v>
+        <v>UPDATE Students SET Token='E8f64390c7' WHERE StudentId = 45</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>235</v>
+        <v>118</v>
       </c>
       <c r="E47" t="s">
-        <v>236</v>
+        <v>119</v>
+      </c>
+      <c r="F47" t="s">
+        <v>420</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='Ef2271aba9' WHERE StudentId = 47</v>
+        <v>UPDATE Students SET Token='E3e7e017a8' WHERE StudentId = 46</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -5225,17 +6048,20 @@
         <v>234</v>
       </c>
       <c r="C48">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="E48" t="s">
-        <v>121</v>
+        <v>236</v>
+      </c>
+      <c r="F48" t="s">
+        <v>421</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E61fa3f39d' WHERE StudentId = 48</v>
+        <v>UPDATE Students SET Token='Ef2271aba9' WHERE StudentId = 47</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -5246,38 +6072,44 @@
         <v>234</v>
       </c>
       <c r="C49">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="E49" t="s">
-        <v>238</v>
+        <v>121</v>
+      </c>
+      <c r="F49" t="s">
+        <v>422</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E1405284ef' WHERE StudentId = 49</v>
+        <v>UPDATE Students SET Token='E61fa3f39d' WHERE StudentId = 48</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E50" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="F50" t="s">
+        <v>423</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='Ee049a8b84' WHERE StudentId = 50</v>
+        <v>UPDATE Students SET Token='E1405284ef' WHERE StudentId = 49</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -5288,38 +6120,44 @@
         <v>239</v>
       </c>
       <c r="C51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>240</v>
       </c>
       <c r="E51" t="s">
-        <v>123</v>
+        <v>241</v>
+      </c>
+      <c r="F51" t="s">
+        <v>424</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E1d9a7a669' WHERE StudentId = 51</v>
+        <v>UPDATE Students SET Token='Ee049a8b84' WHERE StudentId = 50</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E52" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="F52" t="s">
+        <v>425</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='Ec2975ddbb' WHERE StudentId = 52</v>
+        <v>UPDATE Students SET Token='E1d9a7a669' WHERE StudentId = 51</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -5330,17 +6168,20 @@
         <v>242</v>
       </c>
       <c r="C53">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E53" t="s">
-        <v>127</v>
+        <v>125</v>
+      </c>
+      <c r="F53" t="s">
+        <v>426</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E73292be1e' WHERE StudentId = 53</v>
+        <v>UPDATE Students SET Token='Ec2975ddbb' WHERE StudentId = 52</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -5351,38 +6192,44 @@
         <v>242</v>
       </c>
       <c r="C54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E54" t="s">
-        <v>129</v>
+        <v>127</v>
+      </c>
+      <c r="F54" t="s">
+        <v>427</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E4e6fafc0b' WHERE StudentId = 54</v>
+        <v>UPDATE Students SET Token='E73292be1e' WHERE StudentId = 53</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C55">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E55" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="F55" t="s">
+        <v>428</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='Ead584d2fe' WHERE StudentId = 55</v>
+        <v>UPDATE Students SET Token='E4e6fafc0b' WHERE StudentId = 54</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -5393,17 +6240,20 @@
         <v>243</v>
       </c>
       <c r="C56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D56" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E56" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="F56" t="s">
+        <v>429</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E0e07003b4' WHERE StudentId = 56</v>
+        <v>UPDATE Students SET Token='Ead584d2fe' WHERE StudentId = 55</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -5414,38 +6264,44 @@
         <v>243</v>
       </c>
       <c r="C57">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E57" t="s">
-        <v>135</v>
+        <v>133</v>
+      </c>
+      <c r="F57" t="s">
+        <v>430</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E54e8dc5c2' WHERE StudentId = 57</v>
+        <v>UPDATE Students SET Token='E0e07003b4' WHERE StudentId = 56</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C58">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E58" t="s">
-        <v>137</v>
+        <v>135</v>
+      </c>
+      <c r="F58" t="s">
+        <v>431</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E86ae620fb' WHERE StudentId = 58</v>
+        <v>UPDATE Students SET Token='E54e8dc5c2' WHERE StudentId = 57</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -5456,38 +6312,44 @@
         <v>244</v>
       </c>
       <c r="C59">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E59" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="F59" t="s">
+        <v>432</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E6b0eb00e9' WHERE StudentId = 59</v>
+        <v>UPDATE Students SET Token='E86ae620fb' WHERE StudentId = 58</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B60" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E60" t="s">
-        <v>141</v>
+        <v>139</v>
+      </c>
+      <c r="F60" t="s">
+        <v>433</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E67b5f04c3' WHERE StudentId = 60</v>
+        <v>UPDATE Students SET Token='E6b0eb00e9' WHERE StudentId = 59</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -5498,17 +6360,20 @@
         <v>245</v>
       </c>
       <c r="C61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E61" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="F61" t="s">
+        <v>434</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E84ed6ea88' WHERE StudentId = 61</v>
+        <v>UPDATE Students SET Token='E67b5f04c3' WHERE StudentId = 60</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -5519,38 +6384,44 @@
         <v>245</v>
       </c>
       <c r="C62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E62" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="F62" t="s">
+        <v>435</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E7010b2704' WHERE StudentId = 62</v>
+        <v>UPDATE Students SET Token='E84ed6ea88' WHERE StudentId = 61</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C63">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D63" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E63" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="F63" t="s">
+        <v>436</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='Ed41a97753' WHERE StudentId = 63</v>
+        <v>UPDATE Students SET Token='E7010b2704' WHERE StudentId = 62</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -5561,38 +6432,44 @@
         <v>246</v>
       </c>
       <c r="C64">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D64" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E64" t="s">
-        <v>149</v>
+        <v>147</v>
+      </c>
+      <c r="F64" t="s">
+        <v>437</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E3a217b282' WHERE StudentId = 64</v>
+        <v>UPDATE Students SET Token='Ed41a97753' WHERE StudentId = 63</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C65">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>248</v>
+        <v>148</v>
       </c>
       <c r="E65" t="s">
-        <v>249</v>
+        <v>149</v>
+      </c>
+      <c r="F65" t="s">
+        <v>438</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>UPDATE Students SET Token='E312088d60' WHERE StudentId = 65</v>
+        <v>UPDATE Students SET Token='E3a217b282' WHERE StudentId = 64</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -5603,17 +6480,20 @@
         <v>247</v>
       </c>
       <c r="C66">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E66" t="s">
-        <v>251</v>
+        <v>249</v>
+      </c>
+      <c r="F66" t="s">
+        <v>439</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" ref="G66:G100" si="1">CONCATENATE("UPDATE Students SET Token='", E66, "' WHERE StudentId = ",C66)</f>
-        <v>UPDATE Students SET Token='Ef94d8c9aa' WHERE StudentId = 66</v>
+        <f t="shared" si="0"/>
+        <v>UPDATE Students SET Token='E312088d60' WHERE StudentId = 65</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -5624,38 +6504,44 @@
         <v>247</v>
       </c>
       <c r="C67">
+        <v>66</v>
+      </c>
+      <c r="D67" t="s">
+        <v>250</v>
+      </c>
+      <c r="E67" t="s">
+        <v>251</v>
+      </c>
+      <c r="F67" t="s">
+        <v>440</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G101" si="1">CONCATENATE("UPDATE Students SET Token='", E67, "' WHERE StudentId = ",C67)</f>
+        <v>UPDATE Students SET Token='Ef94d8c9aa' WHERE StudentId = 66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>27</v>
+      </c>
+      <c r="B68" t="s">
+        <v>247</v>
+      </c>
+      <c r="C68">
         <v>67</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D68" t="s">
         <v>150</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E68" t="s">
         <v>151</v>
       </c>
-      <c r="G67" t="str">
+      <c r="F68" t="s">
+        <v>441</v>
+      </c>
+      <c r="G68" t="str">
         <f t="shared" si="1"/>
         <v>UPDATE Students SET Token='E251d1d46c' WHERE StudentId = 67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>28</v>
-      </c>
-      <c r="B68" t="s">
-        <v>252</v>
-      </c>
-      <c r="C68">
-        <v>68</v>
-      </c>
-      <c r="D68" t="s">
-        <v>152</v>
-      </c>
-      <c r="E68" t="s">
-        <v>153</v>
-      </c>
-      <c r="G68" t="str">
-        <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='E14766b5b0' WHERE StudentId = 68</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -5666,17 +6552,20 @@
         <v>252</v>
       </c>
       <c r="C69">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E69" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="F69" t="s">
+        <v>442</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='E683f42469' WHERE StudentId = 69</v>
+        <v>UPDATE Students SET Token='E14766b5b0' WHERE StudentId = 68</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -5687,38 +6576,44 @@
         <v>252</v>
       </c>
       <c r="C70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E70" t="s">
-        <v>157</v>
+        <v>155</v>
+      </c>
+      <c r="F70" t="s">
+        <v>443</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='E978c3cc1c' WHERE StudentId = 70</v>
+        <v>UPDATE Students SET Token='E683f42469' WHERE StudentId = 69</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C71">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E71" t="s">
-        <v>159</v>
+        <v>157</v>
+      </c>
+      <c r="F71" t="s">
+        <v>444</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='Ead59180af' WHERE StudentId = 71</v>
+        <v>UPDATE Students SET Token='E978c3cc1c' WHERE StudentId = 70</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -5729,38 +6624,44 @@
         <v>253</v>
       </c>
       <c r="C72">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E72" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="F72" t="s">
+        <v>445</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='E984689c02' WHERE StudentId = 72</v>
+        <v>UPDATE Students SET Token='Ead59180af' WHERE StudentId = 71</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B73" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C73">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E73" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="F73" t="s">
+        <v>446</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='E5bd44658c' WHERE StudentId = 73</v>
+        <v>UPDATE Students SET Token='E984689c02' WHERE StudentId = 72</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -5771,38 +6672,44 @@
         <v>254</v>
       </c>
       <c r="C74">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D74" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E74" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="F74" t="s">
+        <v>447</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='Eecf0856f4' WHERE StudentId = 74</v>
+        <v>UPDATE Students SET Token='E5bd44658c' WHERE StudentId = 73</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B75" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C75">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>256</v>
+        <v>164</v>
       </c>
       <c r="E75" t="s">
-        <v>257</v>
+        <v>165</v>
+      </c>
+      <c r="F75" t="s">
+        <v>448</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='E2e7f6e835' WHERE StudentId = 75</v>
+        <v>UPDATE Students SET Token='Eecf0856f4' WHERE StudentId = 74</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -5813,38 +6720,44 @@
         <v>255</v>
       </c>
       <c r="C76">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D76" t="s">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="E76" t="s">
-        <v>167</v>
+        <v>257</v>
+      </c>
+      <c r="F76" t="s">
+        <v>449</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='E5f1b0f309' WHERE StudentId = 76</v>
+        <v>UPDATE Students SET Token='E2e7f6e835' WHERE StudentId = 75</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B77" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C77">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E77" t="s">
-        <v>169</v>
+        <v>167</v>
+      </c>
+      <c r="F77" t="s">
+        <v>450</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='E38b439ac5' WHERE StudentId = 77</v>
+        <v>UPDATE Students SET Token='E5f1b0f309' WHERE StudentId = 76</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -5855,38 +6768,44 @@
         <v>258</v>
       </c>
       <c r="C78">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D78" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E78" t="s">
-        <v>171</v>
+        <v>169</v>
+      </c>
+      <c r="F78" t="s">
+        <v>451</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='E768ab07ea' WHERE StudentId = 78</v>
+        <v>UPDATE Students SET Token='E38b439ac5' WHERE StudentId = 77</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B79" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C79">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E79" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="F79" t="s">
+        <v>452</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='E8fb0d9bba' WHERE StudentId = 79</v>
+        <v>UPDATE Students SET Token='E768ab07ea' WHERE StudentId = 78</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -5897,38 +6816,44 @@
         <v>259</v>
       </c>
       <c r="C80">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D80" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E80" t="s">
-        <v>175</v>
+        <v>173</v>
+      </c>
+      <c r="F80" t="s">
+        <v>453</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='Eab715eef0' WHERE StudentId = 80</v>
+        <v>UPDATE Students SET Token='E8fb0d9bba' WHERE StudentId = 79</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B81" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C81">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E81" t="s">
-        <v>177</v>
+        <v>175</v>
+      </c>
+      <c r="F81" t="s">
+        <v>454</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='E96b2e662b' WHERE StudentId = 81</v>
+        <v>UPDATE Students SET Token='Eab715eef0' WHERE StudentId = 80</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -5939,17 +6864,20 @@
         <v>260</v>
       </c>
       <c r="C82">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D82" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E82" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="F82" t="s">
+        <v>455</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='E8c53f413c' WHERE StudentId = 82</v>
+        <v>UPDATE Students SET Token='E96b2e662b' WHERE StudentId = 81</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -5960,38 +6888,44 @@
         <v>260</v>
       </c>
       <c r="C83">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D83" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E83" t="s">
-        <v>181</v>
+        <v>179</v>
+      </c>
+      <c r="F83" t="s">
+        <v>456</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='E9eabe8c6b' WHERE StudentId = 83</v>
+        <v>UPDATE Students SET Token='E8c53f413c' WHERE StudentId = 82</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B84" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C84">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D84" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E84" t="s">
-        <v>183</v>
+        <v>181</v>
+      </c>
+      <c r="F84" t="s">
+        <v>457</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='Edc3cf58a6' WHERE StudentId = 84</v>
+        <v>UPDATE Students SET Token='E9eabe8c6b' WHERE StudentId = 83</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -6002,38 +6936,44 @@
         <v>261</v>
       </c>
       <c r="C85">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D85" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E85" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+      <c r="F85" t="s">
+        <v>458</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='Ebd33fa5dc' WHERE StudentId = 85</v>
+        <v>UPDATE Students SET Token='Edc3cf58a6' WHERE StudentId = 84</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B86" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C86">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D86" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E86" t="s">
-        <v>187</v>
+        <v>185</v>
+      </c>
+      <c r="F86" t="s">
+        <v>459</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='Ea474e478b' WHERE StudentId = 86</v>
+        <v>UPDATE Students SET Token='Ebd33fa5dc' WHERE StudentId = 85</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -6044,38 +6984,44 @@
         <v>262</v>
       </c>
       <c r="C87">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D87" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E87" t="s">
-        <v>189</v>
+        <v>187</v>
+      </c>
+      <c r="F87" t="s">
+        <v>460</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='Ef9033b553' WHERE StudentId = 87</v>
+        <v>UPDATE Students SET Token='Ea474e478b' WHERE StudentId = 86</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B88" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C88">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D88" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E88" t="s">
-        <v>191</v>
+        <v>189</v>
+      </c>
+      <c r="F88" t="s">
+        <v>461</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='Ed5888801d' WHERE StudentId = 88</v>
+        <v>UPDATE Students SET Token='Ef9033b553' WHERE StudentId = 87</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -6086,38 +7032,44 @@
         <v>263</v>
       </c>
       <c r="C89">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D89" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E89" t="s">
-        <v>193</v>
+        <v>191</v>
+      </c>
+      <c r="F89" t="s">
+        <v>462</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='E805e70522' WHERE StudentId = 89</v>
+        <v>UPDATE Students SET Token='Ed5888801d' WHERE StudentId = 88</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B90" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C90">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D90" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E90" t="s">
-        <v>195</v>
+        <v>193</v>
+      </c>
+      <c r="F90" t="s">
+        <v>463</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='Ee1dcaa43b' WHERE StudentId = 90</v>
+        <v>UPDATE Students SET Token='E805e70522' WHERE StudentId = 89</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -6128,38 +7080,44 @@
         <v>264</v>
       </c>
       <c r="C91">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D91" t="s">
-        <v>265</v>
+        <v>194</v>
       </c>
       <c r="E91" t="s">
-        <v>266</v>
+        <v>195</v>
+      </c>
+      <c r="F91" t="s">
+        <v>464</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='E2d868976e' WHERE StudentId = 91</v>
+        <v>UPDATE Students SET Token='Ee1dcaa43b' WHERE StudentId = 90</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B92" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C92">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E92" t="s">
-        <v>269</v>
+        <v>266</v>
+      </c>
+      <c r="F92" t="s">
+        <v>465</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='E96161f4a4' WHERE StudentId = 92</v>
+        <v>UPDATE Students SET Token='E2d868976e' WHERE StudentId = 91</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -6170,17 +7128,20 @@
         <v>267</v>
       </c>
       <c r="C93">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E93" t="s">
-        <v>271</v>
+        <v>269</v>
+      </c>
+      <c r="F93" t="s">
+        <v>466</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='E5ebca2d5b' WHERE StudentId = 93</v>
+        <v>UPDATE Students SET Token='E96161f4a4' WHERE StudentId = 92</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -6191,38 +7152,44 @@
         <v>267</v>
       </c>
       <c r="C94">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D94" t="s">
-        <v>196</v>
+        <v>270</v>
       </c>
       <c r="E94" t="s">
-        <v>197</v>
+        <v>271</v>
+      </c>
+      <c r="F94" t="s">
+        <v>467</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='E1b8dab5f9' WHERE StudentId = 94</v>
+        <v>UPDATE Students SET Token='E5ebca2d5b' WHERE StudentId = 93</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B95" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C95">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D95" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E95" t="s">
-        <v>199</v>
+        <v>197</v>
+      </c>
+      <c r="F95" t="s">
+        <v>468</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='Edd5126919' WHERE StudentId = 95</v>
+        <v>UPDATE Students SET Token='E1b8dab5f9' WHERE StudentId = 94</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -6233,17 +7200,20 @@
         <v>272</v>
       </c>
       <c r="C96">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D96" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E96" t="s">
-        <v>201</v>
+        <v>199</v>
+      </c>
+      <c r="F96" t="s">
+        <v>469</v>
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='E1a77bdf4d' WHERE StudentId = 96</v>
+        <v>UPDATE Students SET Token='Edd5126919' WHERE StudentId = 95</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -6254,38 +7224,44 @@
         <v>272</v>
       </c>
       <c r="C97">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D97" t="s">
-        <v>273</v>
+        <v>200</v>
       </c>
       <c r="E97" t="s">
-        <v>274</v>
+        <v>201</v>
+      </c>
+      <c r="F97" t="s">
+        <v>470</v>
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='Ea959dadf6' WHERE StudentId = 97</v>
+        <v>UPDATE Students SET Token='E1a77bdf4d' WHERE StudentId = 96</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B98" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C98">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
       <c r="E98" t="s">
-        <v>203</v>
+        <v>274</v>
+      </c>
+      <c r="F98" t="s">
+        <v>471</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='E37a0aad0a' WHERE StudentId = 98</v>
+        <v>UPDATE Students SET Token='Ea959dadf6' WHERE StudentId = 97</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -6296,17 +7272,20 @@
         <v>275</v>
       </c>
       <c r="C99">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>276</v>
+        <v>202</v>
       </c>
       <c r="E99" t="s">
-        <v>277</v>
+        <v>203</v>
+      </c>
+      <c r="F99" t="s">
+        <v>472</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
-        <v>UPDATE Students SET Token='E88de5bffd' WHERE StudentId = 99</v>
+        <v>UPDATE Students SET Token='E37a0aad0a' WHERE StudentId = 98</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -6317,21 +7296,658 @@
         <v>275</v>
       </c>
       <c r="C100">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D100" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E100" t="s">
-        <v>279</v>
+        <v>277</v>
+      </c>
+      <c r="F100" t="s">
+        <v>473</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
+        <v>UPDATE Students SET Token='E88de5bffd' WHERE StudentId = 99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>41</v>
+      </c>
+      <c r="B101" t="s">
+        <v>275</v>
+      </c>
+      <c r="C101">
+        <v>100</v>
+      </c>
+      <c r="D101" t="s">
+        <v>278</v>
+      </c>
+      <c r="E101" t="s">
+        <v>279</v>
+      </c>
+      <c r="F101" t="s">
+        <v>474</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="1"/>
         <v>UPDATE Students SET Token='E6d67db436' WHERE StudentId = 100</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D8" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D13" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>327</v>
+      </c>
+      <c r="D14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C15" t="s">
+        <v>328</v>
+      </c>
+      <c r="D15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" t="s">
+        <v>329</v>
+      </c>
+      <c r="D16" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>330</v>
+      </c>
+      <c r="D17" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D18" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" t="s">
+        <v>332</v>
+      </c>
+      <c r="D19" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>333</v>
+      </c>
+      <c r="C20" t="s">
+        <v>334</v>
+      </c>
+      <c r="D20" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>72</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D21" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
+        <v>336</v>
+      </c>
+      <c r="C22" t="s">
+        <v>337</v>
+      </c>
+      <c r="D22" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>338</v>
+      </c>
+      <c r="C23" t="s">
+        <v>339</v>
+      </c>
+      <c r="D23" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>75</v>
+      </c>
+      <c r="B24" t="s">
+        <v>340</v>
+      </c>
+      <c r="C24" t="s">
+        <v>341</v>
+      </c>
+      <c r="D24" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>76</v>
+      </c>
+      <c r="B25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" t="s">
+        <v>342</v>
+      </c>
+      <c r="D25" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>343</v>
+      </c>
+      <c r="C26" t="s">
+        <v>344</v>
+      </c>
+      <c r="D26" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>345</v>
+      </c>
+      <c r="D27" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>346</v>
+      </c>
+      <c r="D28" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>347</v>
+      </c>
+      <c r="D29" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s">
+        <v>348</v>
+      </c>
+      <c r="C30" t="s">
+        <v>349</v>
+      </c>
+      <c r="D30" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>350</v>
+      </c>
+      <c r="D31" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
+        <v>351</v>
+      </c>
+      <c r="C32" t="s">
+        <v>352</v>
+      </c>
+      <c r="D32" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>87</v>
+      </c>
+      <c r="B33" t="s">
+        <v>353</v>
+      </c>
+      <c r="C33" t="s">
+        <v>354</v>
+      </c>
+      <c r="D33" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>355</v>
+      </c>
+      <c r="C34" t="s">
+        <v>356</v>
+      </c>
+      <c r="D34" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>357</v>
+      </c>
+      <c r="C35" t="s">
+        <v>358</v>
+      </c>
+      <c r="D35" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>91</v>
+      </c>
+      <c r="B36" t="s">
+        <v>359</v>
+      </c>
+      <c r="C36" t="s">
+        <v>360</v>
+      </c>
+      <c r="D36" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>361</v>
+      </c>
+      <c r="C37" t="s">
+        <v>362</v>
+      </c>
+      <c r="D37" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>94</v>
+      </c>
+      <c r="B38" t="s">
+        <v>363</v>
+      </c>
+      <c r="C38" t="s">
+        <v>364</v>
+      </c>
+      <c r="D38" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>95</v>
+      </c>
+      <c r="B39" t="s">
+        <v>365</v>
+      </c>
+      <c r="C39" t="s">
+        <v>366</v>
+      </c>
+      <c r="D39" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>367</v>
+      </c>
+      <c r="C40" t="s">
+        <v>368</v>
+      </c>
+      <c r="D40" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>99</v>
+      </c>
+      <c r="B41" t="s">
+        <v>369</v>
+      </c>
+      <c r="C41" t="s">
+        <v>370</v>
+      </c>
+      <c r="D41" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>371</v>
+      </c>
+      <c r="C42" t="s">
+        <v>372</v>
+      </c>
+      <c r="D42" t="s">
+        <v>515</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/data/small/data.xlsx
+++ b/doc/data/small/data.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Grupos-profesores" sheetId="1" r:id="rId1"/>
     <sheet name="Grupos estudiantes" sheetId="2" r:id="rId2"/>
-    <sheet name="Tutores estudiantes" sheetId="3" r:id="rId3"/>
-    <sheet name="Profesores" sheetId="4" r:id="rId4"/>
+    <sheet name="Administradores" sheetId="5" r:id="rId3"/>
+    <sheet name="Tutores estudiantes" sheetId="3" r:id="rId4"/>
+    <sheet name="Profesores" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Grupos estudiantes'!$A$1:$E$138</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Grupos-profesores'!$A$1:$E$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tutores estudiantes'!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Tutores estudiantes'!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="518">
   <si>
     <t>1A</t>
   </si>
@@ -1580,6 +1581,12 @@
   </si>
   <si>
     <t>UzpaR0hBOTk3NzI1SU9VQ1dZMjU6MTAx</t>
+  </si>
+  <si>
+    <t>UzpGRUJBOTExMjA2SERGUkxOMDk6MQ==</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio Feregrino Bolaños </t>
   </si>
 </sst>
 </file>
@@ -4901,10 +4908,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7343,12 +7376,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/data/small/data.xlsx
+++ b/doc/data/small/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Grupos-profesores" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Profesores" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Grupos estudiantes'!$A$1:$E$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Grupos estudiantes'!$A$1:$E$137</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Grupos-profesores'!$A$1:$E$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Tutores estudiantes'!$A$1:$H$1</definedName>
   </definedNames>
@@ -1912,15 +1912,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1940,7 +1942,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>42</v>
       </c>
@@ -1957,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>42</v>
       </c>
@@ -1974,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>47</v>
       </c>
@@ -1991,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>47</v>
       </c>
@@ -2008,7 +2010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>49</v>
       </c>
@@ -2025,7 +2027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
@@ -2042,7 +2044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50</v>
       </c>
@@ -2059,7 +2061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>51</v>
       </c>
@@ -2076,7 +2078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>53</v>
       </c>
@@ -2093,7 +2095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>53</v>
       </c>
@@ -2110,7 +2112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>53</v>
       </c>
@@ -2127,7 +2129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>54</v>
       </c>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>55</v>
       </c>
@@ -2161,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>55</v>
       </c>
@@ -2178,7 +2180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>55</v>
       </c>
@@ -2195,7 +2197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>56</v>
       </c>
@@ -2212,7 +2214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>56</v>
       </c>
@@ -2229,7 +2231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>56</v>
       </c>
@@ -2246,7 +2248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>59</v>
       </c>
@@ -2263,7 +2265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>59</v>
       </c>
@@ -2280,7 +2282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>61</v>
       </c>
@@ -2297,7 +2299,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>61</v>
       </c>
@@ -2314,7 +2316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>62</v>
       </c>
@@ -2331,7 +2333,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>62</v>
       </c>
@@ -2348,7 +2350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>63</v>
       </c>
@@ -2365,7 +2367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>66</v>
       </c>
@@ -2399,7 +2401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>69</v>
       </c>
@@ -2433,7 +2435,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>72</v>
       </c>
@@ -2450,7 +2452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>76</v>
       </c>
@@ -2467,7 +2469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>79</v>
       </c>
@@ -2484,7 +2486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>80</v>
       </c>
@@ -2501,7 +2503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>81</v>
       </c>
@@ -2518,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>81</v>
       </c>
@@ -2535,7 +2537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>83</v>
       </c>
@@ -2553,17 +2555,24 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E37"/>
+  <autoFilter ref="A1:E37">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="7"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E138"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2571,24 +2580,41 @@
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>304</v>
       </c>
+      <c r="B1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" t="s">
-        <v>307</v>
+        <v>48</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2599,13 +2625,13 @@
         <v>48</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2616,13 +2642,13 @@
         <v>48</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2633,30 +2659,30 @@
         <v>48</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2667,13 +2693,13 @@
         <v>49</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2684,30 +2710,30 @@
         <v>49</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -2718,13 +2744,13 @@
         <v>50</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2735,30 +2761,30 @@
         <v>50</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>292</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2769,13 +2795,13 @@
         <v>52</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -2786,30 +2812,30 @@
         <v>52</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>293</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -2820,30 +2846,30 @@
         <v>53</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>293</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -2854,13 +2880,13 @@
         <v>55</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
@@ -2871,30 +2897,30 @@
         <v>55</v>
       </c>
       <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
         <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -2905,13 +2931,13 @@
         <v>56</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7</v>
       </c>
@@ -2922,13 +2948,13 @@
         <v>56</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7</v>
       </c>
@@ -2939,47 +2965,47 @@
         <v>56</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>7</v>
-      </c>
       <c r="B24" t="s">
-        <v>294</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -2990,47 +3016,47 @@
         <v>60</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>295</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>295</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11</v>
       </c>
@@ -3041,30 +3067,30 @@
         <v>63</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D30">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>12</v>
       </c>
@@ -3075,64 +3101,64 @@
         <v>65</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
         <v>13</v>
       </c>
-      <c r="E32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>17</v>
       </c>
@@ -3143,30 +3169,30 @@
         <v>71</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>18</v>
       </c>
@@ -3177,13 +3203,13 @@
         <v>73</v>
       </c>
       <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
         <v>4</v>
       </c>
-      <c r="E37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>18</v>
       </c>
@@ -3194,123 +3220,123 @@
         <v>73</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>296</v>
+      </c>
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>22</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
         <v>18</v>
-      </c>
-      <c r="B39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39">
-        <v>13</v>
-      </c>
-      <c r="E39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>19</v>
-      </c>
-      <c r="B40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" t="s">
-        <v>75</v>
-      </c>
-      <c r="D40">
-        <v>7</v>
-      </c>
-      <c r="E40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>20</v>
-      </c>
-      <c r="B41" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41">
-        <v>11</v>
-      </c>
-      <c r="E41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>21</v>
-      </c>
-      <c r="B42" t="s">
-        <v>296</v>
-      </c>
-      <c r="C42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="C43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -3319,41 +3345,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47">
         <v>2</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>27</v>
-      </c>
-      <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47">
-        <v>4</v>
-      </c>
-      <c r="E47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>28</v>
       </c>
@@ -3364,30 +3390,30 @@
         <v>89</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>29</v>
       </c>
@@ -3398,47 +3424,47 @@
         <v>91</v>
       </c>
       <c r="D50">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
         <v>8</v>
       </c>
-      <c r="E50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D52">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>31</v>
       </c>
@@ -3449,64 +3475,64 @@
         <v>95</v>
       </c>
       <c r="D53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D54">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>32</v>
-      </c>
-      <c r="B55" t="s">
-        <v>96</v>
-      </c>
-      <c r="C55" t="s">
-        <v>97</v>
-      </c>
-      <c r="D55">
-        <v>10</v>
-      </c>
-      <c r="E55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>33</v>
-      </c>
-      <c r="B56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56">
-        <v>9</v>
-      </c>
       <c r="E56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>34</v>
       </c>
@@ -3517,64 +3543,64 @@
         <v>101</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>35</v>
+      </c>
+      <c r="B58" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>34</v>
-      </c>
-      <c r="B58" t="s">
-        <v>100</v>
-      </c>
-      <c r="C58" t="s">
-        <v>101</v>
-      </c>
-      <c r="D58">
-        <v>6</v>
-      </c>
       <c r="E58" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>37</v>
+      </c>
+      <c r="B60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>36</v>
-      </c>
-      <c r="B60" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" t="s">
-        <v>105</v>
-      </c>
-      <c r="D60">
-        <v>8</v>
-      </c>
       <c r="E60" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>37</v>
       </c>
@@ -3585,115 +3611,115 @@
         <v>107</v>
       </c>
       <c r="D61">
+        <v>12</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>38</v>
+      </c>
+      <c r="B62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>39</v>
+      </c>
+      <c r="B63" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" t="s">
+        <v>111</v>
+      </c>
+      <c r="D63">
         <v>1</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E63" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>37</v>
-      </c>
-      <c r="B62" t="s">
-        <v>106</v>
-      </c>
-      <c r="C62" t="s">
-        <v>107</v>
-      </c>
-      <c r="D62">
-        <v>12</v>
-      </c>
-      <c r="E62" t="s">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>40</v>
+      </c>
+      <c r="B64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>44</v>
+      </c>
+      <c r="B65" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>45</v>
+      </c>
+      <c r="B66" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>46</v>
+      </c>
+      <c r="B67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>38</v>
-      </c>
-      <c r="B63" t="s">
-        <v>108</v>
-      </c>
-      <c r="C63" t="s">
-        <v>109</v>
-      </c>
-      <c r="D63">
-        <v>10</v>
-      </c>
-      <c r="E63" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>39</v>
-      </c>
-      <c r="B64" t="s">
-        <v>110</v>
-      </c>
-      <c r="C64" t="s">
-        <v>111</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>40</v>
-      </c>
-      <c r="B65" t="s">
-        <v>112</v>
-      </c>
-      <c r="C65" t="s">
-        <v>113</v>
-      </c>
-      <c r="D65">
-        <v>11</v>
-      </c>
-      <c r="E65" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>44</v>
-      </c>
-      <c r="B66" t="s">
-        <v>114</v>
-      </c>
-      <c r="C66" t="s">
-        <v>115</v>
-      </c>
-      <c r="D66">
-        <v>13</v>
-      </c>
-      <c r="E66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>45</v>
-      </c>
-      <c r="B67" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67" t="s">
-        <v>117</v>
-      </c>
-      <c r="D67">
-        <v>5</v>
-      </c>
       <c r="E67" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>46</v>
       </c>
@@ -3704,47 +3730,47 @@
         <v>119</v>
       </c>
       <c r="D68">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D69">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B70" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D70">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>51</v>
       </c>
@@ -3755,13 +3781,13 @@
         <v>123</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>51</v>
       </c>
@@ -3772,13 +3798,13 @@
         <v>123</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>51</v>
       </c>
@@ -3789,30 +3815,30 @@
         <v>123</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B74" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C74" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D74">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>52</v>
       </c>
@@ -3823,13 +3849,13 @@
         <v>125</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>52</v>
       </c>
@@ -3840,30 +3866,30 @@
         <v>125</v>
       </c>
       <c r="D76">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C77" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D77">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>53</v>
       </c>
@@ -3874,13 +3900,13 @@
         <v>127</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>53</v>
       </c>
@@ -3891,30 +3917,30 @@
         <v>127</v>
       </c>
       <c r="D79">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C80" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D80">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>54</v>
       </c>
@@ -3925,13 +3951,13 @@
         <v>129</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>54</v>
       </c>
@@ -3942,30 +3968,30 @@
         <v>129</v>
       </c>
       <c r="D82">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E82" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B83" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C83" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D83">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>55</v>
       </c>
@@ -3976,30 +4002,30 @@
         <v>131</v>
       </c>
       <c r="D84">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C85" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D85">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>56</v>
       </c>
@@ -4010,13 +4036,13 @@
         <v>133</v>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>56</v>
       </c>
@@ -4027,30 +4053,30 @@
         <v>133</v>
       </c>
       <c r="D87">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s">
         <v>6</v>
-      </c>
-      <c r="E87" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B88" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C88" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D88">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>57</v>
       </c>
@@ -4061,13 +4087,13 @@
         <v>135</v>
       </c>
       <c r="D89">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>57</v>
       </c>
@@ -4078,13 +4104,13 @@
         <v>135</v>
       </c>
       <c r="D90">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>57</v>
       </c>
@@ -4095,47 +4121,47 @@
         <v>135</v>
       </c>
       <c r="D91">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>58</v>
+      </c>
+      <c r="B92" t="s">
+        <v>136</v>
+      </c>
+      <c r="C92" t="s">
+        <v>137</v>
+      </c>
+      <c r="D92">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>57</v>
-      </c>
-      <c r="B92" t="s">
-        <v>134</v>
-      </c>
-      <c r="C92" t="s">
-        <v>135</v>
-      </c>
-      <c r="D92">
-        <v>14</v>
-      </c>
       <c r="E92" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B93" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C93" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D93">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>59</v>
       </c>
@@ -4146,47 +4172,47 @@
         <v>139</v>
       </c>
       <c r="D94">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B95" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C95" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D95">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B96" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C96" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D96">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>61</v>
       </c>
@@ -4197,30 +4223,30 @@
         <v>143</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B98" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C98" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D98">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>62</v>
       </c>
@@ -4231,64 +4257,64 @@
         <v>145</v>
       </c>
       <c r="D99">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E99" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B100" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C100" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D100">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>64</v>
+      </c>
+      <c r="B101" t="s">
+        <v>148</v>
+      </c>
+      <c r="C101" t="s">
+        <v>149</v>
+      </c>
+      <c r="D101">
+        <v>10</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>67</v>
+      </c>
+      <c r="B102" t="s">
+        <v>150</v>
+      </c>
+      <c r="C102" t="s">
+        <v>151</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
         <v>13</v>
       </c>
-      <c r="E100" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>63</v>
-      </c>
-      <c r="B101" t="s">
-        <v>146</v>
-      </c>
-      <c r="C101" t="s">
-        <v>147</v>
-      </c>
-      <c r="D101">
-        <v>14</v>
-      </c>
-      <c r="E101" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>64</v>
-      </c>
-      <c r="B102" t="s">
-        <v>148</v>
-      </c>
-      <c r="C102" t="s">
-        <v>149</v>
-      </c>
-      <c r="D102">
-        <v>10</v>
-      </c>
-      <c r="E102" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>67</v>
       </c>
@@ -4299,30 +4325,30 @@
         <v>151</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B104" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C104" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E104" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>68</v>
       </c>
@@ -4333,13 +4359,13 @@
         <v>153</v>
       </c>
       <c r="D105">
+        <v>10</v>
+      </c>
+      <c r="E105" t="s">
         <v>4</v>
       </c>
-      <c r="E105" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>68</v>
       </c>
@@ -4350,123 +4376,123 @@
         <v>153</v>
       </c>
       <c r="D106">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E106" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B107" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C107" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D107">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E107" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>70</v>
+      </c>
+      <c r="B108" t="s">
+        <v>156</v>
+      </c>
+      <c r="C108" t="s">
+        <v>157</v>
+      </c>
+      <c r="D108">
+        <v>11</v>
+      </c>
+      <c r="E108" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>71</v>
+      </c>
+      <c r="B109" t="s">
+        <v>158</v>
+      </c>
+      <c r="C109" t="s">
+        <v>159</v>
+      </c>
+      <c r="D109">
+        <v>14</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>72</v>
+      </c>
+      <c r="B110" t="s">
+        <v>160</v>
+      </c>
+      <c r="C110" t="s">
+        <v>161</v>
+      </c>
+      <c r="D110">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>69</v>
-      </c>
-      <c r="B108" t="s">
-        <v>154</v>
-      </c>
-      <c r="C108" t="s">
-        <v>155</v>
-      </c>
-      <c r="D108">
-        <v>7</v>
-      </c>
-      <c r="E108" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>70</v>
-      </c>
-      <c r="B109" t="s">
-        <v>156</v>
-      </c>
-      <c r="C109" t="s">
-        <v>157</v>
-      </c>
-      <c r="D109">
-        <v>11</v>
-      </c>
-      <c r="E109" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>71</v>
-      </c>
-      <c r="B110" t="s">
-        <v>158</v>
-      </c>
-      <c r="C110" t="s">
-        <v>159</v>
-      </c>
-      <c r="D110">
-        <v>14</v>
-      </c>
       <c r="E110" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B111" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C111" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D111">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B112" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D112">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E112" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B113" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C113" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -4475,41 +4501,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B114" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C114" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D114">
+        <v>4</v>
+      </c>
+      <c r="E114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>78</v>
+      </c>
+      <c r="B115" t="s">
+        <v>170</v>
+      </c>
+      <c r="C115" t="s">
+        <v>171</v>
+      </c>
+      <c r="D115">
         <v>2</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E115" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>77</v>
-      </c>
-      <c r="B115" t="s">
-        <v>168</v>
-      </c>
-      <c r="C115" t="s">
-        <v>169</v>
-      </c>
-      <c r="D115">
-        <v>4</v>
-      </c>
-      <c r="E115" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>78</v>
       </c>
@@ -4520,30 +4546,30 @@
         <v>171</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E116" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B117" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C117" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D117">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E117" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>79</v>
       </c>
@@ -4554,47 +4580,47 @@
         <v>173</v>
       </c>
       <c r="D118">
+        <v>12</v>
+      </c>
+      <c r="E118" t="s">
         <v>8</v>
       </c>
-      <c r="E118" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B119" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C119" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D119">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B120" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C120" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D120">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E120" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>81</v>
       </c>
@@ -4605,64 +4631,64 @@
         <v>177</v>
       </c>
       <c r="D121">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E121" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B122" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C122" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D122">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>83</v>
+      </c>
+      <c r="B123" t="s">
+        <v>180</v>
+      </c>
+      <c r="C123" t="s">
+        <v>181</v>
+      </c>
+      <c r="D123">
+        <v>9</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>84</v>
+      </c>
+      <c r="B124" t="s">
+        <v>182</v>
+      </c>
+      <c r="C124" t="s">
+        <v>183</v>
+      </c>
+      <c r="D124">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>82</v>
-      </c>
-      <c r="B123" t="s">
-        <v>178</v>
-      </c>
-      <c r="C123" t="s">
-        <v>179</v>
-      </c>
-      <c r="D123">
-        <v>10</v>
-      </c>
-      <c r="E123" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>83</v>
-      </c>
-      <c r="B124" t="s">
-        <v>180</v>
-      </c>
-      <c r="C124" t="s">
-        <v>181</v>
-      </c>
-      <c r="D124">
-        <v>9</v>
-      </c>
       <c r="E124" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>84</v>
       </c>
@@ -4673,64 +4699,64 @@
         <v>183</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E125" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>85</v>
+      </c>
+      <c r="B126" t="s">
+        <v>184</v>
+      </c>
+      <c r="C126" t="s">
+        <v>185</v>
+      </c>
+      <c r="D126">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>84</v>
-      </c>
-      <c r="B126" t="s">
-        <v>182</v>
-      </c>
-      <c r="C126" t="s">
-        <v>183</v>
-      </c>
-      <c r="D126">
-        <v>6</v>
-      </c>
       <c r="E126" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B127" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C127" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D127">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E127" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>87</v>
+      </c>
+      <c r="B128" t="s">
+        <v>188</v>
+      </c>
+      <c r="C128" t="s">
+        <v>189</v>
+      </c>
+      <c r="D128">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>86</v>
-      </c>
-      <c r="B128" t="s">
-        <v>186</v>
-      </c>
-      <c r="C128" t="s">
-        <v>187</v>
-      </c>
-      <c r="D128">
-        <v>8</v>
-      </c>
       <c r="E128" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>87</v>
       </c>
@@ -4741,115 +4767,115 @@
         <v>189</v>
       </c>
       <c r="D129">
+        <v>12</v>
+      </c>
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>88</v>
+      </c>
+      <c r="B130" t="s">
+        <v>190</v>
+      </c>
+      <c r="C130" t="s">
+        <v>191</v>
+      </c>
+      <c r="D130">
+        <v>10</v>
+      </c>
+      <c r="E130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>89</v>
+      </c>
+      <c r="B131" t="s">
+        <v>192</v>
+      </c>
+      <c r="C131" t="s">
+        <v>193</v>
+      </c>
+      <c r="D131">
         <v>1</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E131" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>87</v>
-      </c>
-      <c r="B130" t="s">
-        <v>188</v>
-      </c>
-      <c r="C130" t="s">
-        <v>189</v>
-      </c>
-      <c r="D130">
-        <v>12</v>
-      </c>
-      <c r="E130" t="s">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>90</v>
+      </c>
+      <c r="B132" t="s">
+        <v>194</v>
+      </c>
+      <c r="C132" t="s">
+        <v>195</v>
+      </c>
+      <c r="D132">
+        <v>11</v>
+      </c>
+      <c r="E132" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>94</v>
+      </c>
+      <c r="B133" t="s">
+        <v>196</v>
+      </c>
+      <c r="C133" t="s">
+        <v>197</v>
+      </c>
+      <c r="D133">
+        <v>13</v>
+      </c>
+      <c r="E133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>95</v>
+      </c>
+      <c r="B134" t="s">
+        <v>198</v>
+      </c>
+      <c r="C134" t="s">
+        <v>199</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>96</v>
+      </c>
+      <c r="B135" t="s">
+        <v>200</v>
+      </c>
+      <c r="C135" t="s">
+        <v>201</v>
+      </c>
+      <c r="D135">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>88</v>
-      </c>
-      <c r="B131" t="s">
-        <v>190</v>
-      </c>
-      <c r="C131" t="s">
-        <v>191</v>
-      </c>
-      <c r="D131">
-        <v>10</v>
-      </c>
-      <c r="E131" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>89</v>
-      </c>
-      <c r="B132" t="s">
-        <v>192</v>
-      </c>
-      <c r="C132" t="s">
-        <v>193</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-      <c r="E132" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>90</v>
-      </c>
-      <c r="B133" t="s">
-        <v>194</v>
-      </c>
-      <c r="C133" t="s">
-        <v>195</v>
-      </c>
-      <c r="D133">
-        <v>11</v>
-      </c>
-      <c r="E133" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>94</v>
-      </c>
-      <c r="B134" t="s">
-        <v>196</v>
-      </c>
-      <c r="C134" t="s">
-        <v>197</v>
-      </c>
-      <c r="D134">
-        <v>13</v>
-      </c>
-      <c r="E134" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>95</v>
-      </c>
-      <c r="B135" t="s">
-        <v>198</v>
-      </c>
-      <c r="C135" t="s">
-        <v>199</v>
-      </c>
-      <c r="D135">
-        <v>5</v>
-      </c>
       <c r="E135" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>96</v>
       </c>
@@ -4860,48 +4886,37 @@
         <v>201</v>
       </c>
       <c r="D136">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B137" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C137" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D137">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>98</v>
-      </c>
-      <c r="B138" t="s">
-        <v>202</v>
-      </c>
-      <c r="C138" t="s">
-        <v>203</v>
-      </c>
-      <c r="D138">
-        <v>4</v>
-      </c>
-      <c r="E138" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E138"/>
+  <autoFilter ref="A1:E137">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="7"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4910,7 +4925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -4936,8 +4951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G101"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7381,7 +7396,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
